--- a/BackTest/2019-10-28 BackTest BZNT.xlsx
+++ b/BackTest/2019-10-28 BackTest BZNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M127"/>
+  <dimension ref="A1:N127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -448,7 +453,7 @@
         <v>200</v>
       </c>
       <c r="G2" t="n">
-        <v>772342.0024907242</v>
+        <v>4.396499999999998</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -483,13 +489,13 @@
         <v>578447</v>
       </c>
       <c r="G3" t="n">
-        <v>193895.0024907242</v>
+        <v>4.398999999999999</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,13 +525,13 @@
         <v>113817.972</v>
       </c>
       <c r="G4" t="n">
-        <v>193895.0024907242</v>
+        <v>4.4015</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -553,7 +561,7 @@
         <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>193905.0024907242</v>
+        <v>4.403</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -588,7 +597,7 @@
         <v>2509.425</v>
       </c>
       <c r="G6" t="n">
-        <v>191395.5774907242</v>
+        <v>4.404</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -623,7 +633,7 @@
         <v>110000</v>
       </c>
       <c r="G7" t="n">
-        <v>191395.5774907242</v>
+        <v>4.404500000000001</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -658,7 +669,7 @@
         <v>1490006.266</v>
       </c>
       <c r="G8" t="n">
-        <v>-1298610.688509276</v>
+        <v>4.4035</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -693,13 +705,13 @@
         <v>240</v>
       </c>
       <c r="G9" t="n">
-        <v>-1298370.688509276</v>
+        <v>4.402000000000001</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -728,7 +741,7 @@
         <v>10</v>
       </c>
       <c r="G10" t="n">
-        <v>-1298380.688509276</v>
+        <v>4.388000000000001</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -763,7 +777,7 @@
         <v>18</v>
       </c>
       <c r="G11" t="n">
-        <v>-1298362.688509276</v>
+        <v>4.386500000000001</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -798,7 +813,7 @@
         <v>18</v>
       </c>
       <c r="G12" t="n">
-        <v>-1298380.688509276</v>
+        <v>4.380500000000001</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -833,7 +849,7 @@
         <v>81830.27959999999</v>
       </c>
       <c r="G13" t="n">
-        <v>-1298380.688509276</v>
+        <v>4.374000000000001</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -868,7 +885,7 @@
         <v>28200</v>
       </c>
       <c r="G14" t="n">
-        <v>-1270180.688509276</v>
+        <v>4.368</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -903,7 +921,7 @@
         <v>122805.864</v>
       </c>
       <c r="G15" t="n">
-        <v>-1392986.552509276</v>
+        <v>4.365</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -921,6 +939,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -942,7 +961,7 @@
         <v>17516.0308</v>
       </c>
       <c r="G16" t="n">
-        <v>-1392986.552509276</v>
+        <v>4.368500000000001</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -964,6 +983,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -985,7 +1005,7 @@
         <v>10</v>
       </c>
       <c r="G17" t="n">
-        <v>-1392976.552509276</v>
+        <v>4.366500000000001</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
@@ -1007,6 +1027,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1028,7 +1049,7 @@
         <v>101344.186</v>
       </c>
       <c r="G18" t="n">
-        <v>-1494320.738509276</v>
+        <v>4.361000000000002</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
@@ -1046,6 +1067,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1067,7 +1089,7 @@
         <v>48655.814</v>
       </c>
       <c r="G19" t="n">
-        <v>-1494320.738509276</v>
+        <v>4.356000000000001</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -1089,6 +1111,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1110,7 +1133,7 @@
         <v>18.1818</v>
       </c>
       <c r="G20" t="n">
-        <v>-1494302.556709276</v>
+        <v>4.353500000000001</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -1132,6 +1155,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1153,7 +1177,7 @@
         <v>18.1818</v>
       </c>
       <c r="G21" t="n">
-        <v>-1494284.374909276</v>
+        <v>4.352000000000001</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -1171,6 +1195,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1192,7 +1217,7 @@
         <v>115027.1597</v>
       </c>
       <c r="G22" t="n">
-        <v>-1609311.534609276</v>
+        <v>4.349500000000001</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -1214,6 +1239,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1235,7 +1261,7 @@
         <v>115424.4438</v>
       </c>
       <c r="G23" t="n">
-        <v>-1724735.978409276</v>
+        <v>4.347</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
@@ -1257,6 +1283,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1278,7 +1305,7 @@
         <v>703.0198</v>
       </c>
       <c r="G24" t="n">
-        <v>-1724735.978409276</v>
+        <v>4.343000000000001</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
@@ -1300,6 +1327,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1321,7 +1349,7 @@
         <v>2314.6924</v>
       </c>
       <c r="G25" t="n">
-        <v>-1727050.670809276</v>
+        <v>4.338000000000001</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
@@ -1343,6 +1371,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1364,7 +1393,7 @@
         <v>10</v>
       </c>
       <c r="G26" t="n">
-        <v>-1727040.670809276</v>
+        <v>4.336</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
@@ -1386,6 +1415,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1407,7 +1437,7 @@
         <v>186767.793</v>
       </c>
       <c r="G27" t="n">
-        <v>-1913808.463809276</v>
+        <v>4.3335</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1427,6 +1457,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1448,7 +1479,7 @@
         <v>31741.3211</v>
       </c>
       <c r="G28" t="n">
-        <v>-1913808.463809276</v>
+        <v>4.3315</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1468,6 +1499,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1489,7 +1521,7 @@
         <v>10203.6828</v>
       </c>
       <c r="G29" t="n">
-        <v>-1913808.463809276</v>
+        <v>4.328999999999999</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1509,6 +1541,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1530,7 +1563,7 @@
         <v>12000</v>
       </c>
       <c r="G30" t="n">
-        <v>-1913808.463809276</v>
+        <v>4.338999999999999</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1550,6 +1583,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1571,7 +1605,7 @@
         <v>17.2584</v>
       </c>
       <c r="G31" t="n">
-        <v>-1913791.205409276</v>
+        <v>4.336999999999998</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1591,6 +1625,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1612,7 +1647,7 @@
         <v>5000</v>
       </c>
       <c r="G32" t="n">
-        <v>-1918791.205409276</v>
+        <v>4.339499999999998</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1632,6 +1667,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1653,7 +1689,7 @@
         <v>10</v>
       </c>
       <c r="G33" t="n">
-        <v>-1918781.205409276</v>
+        <v>4.342499999999998</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1673,6 +1709,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1694,7 +1731,7 @@
         <v>7606.8321</v>
       </c>
       <c r="G34" t="n">
-        <v>-1926388.037509276</v>
+        <v>4.344999999999998</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1714,6 +1751,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1735,7 +1773,7 @@
         <v>200</v>
       </c>
       <c r="G35" t="n">
-        <v>-1926388.037509276</v>
+        <v>4.345499999999998</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1755,6 +1793,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1776,7 +1815,7 @@
         <v>86120</v>
       </c>
       <c r="G36" t="n">
-        <v>-2012508.037509276</v>
+        <v>4.339999999999998</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1796,6 +1835,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1817,7 +1857,7 @@
         <v>19186.3226</v>
       </c>
       <c r="G37" t="n">
-        <v>-2012508.037509276</v>
+        <v>4.332999999999998</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1837,6 +1877,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1858,7 +1899,7 @@
         <v>94657.1869</v>
       </c>
       <c r="G38" t="n">
-        <v>-1917850.850609276</v>
+        <v>4.329499999999998</v>
       </c>
       <c r="H38" t="n">
         <v>1</v>
@@ -1880,6 +1921,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1901,7 +1943,7 @@
         <v>32777</v>
       </c>
       <c r="G39" t="n">
-        <v>-1950627.850609276</v>
+        <v>4.329499999999998</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1921,6 +1963,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1942,7 +1985,7 @@
         <v>100</v>
       </c>
       <c r="G40" t="n">
-        <v>-1950527.850609276</v>
+        <v>4.328499999999998</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1962,6 +2005,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1983,7 +2027,7 @@
         <v>100</v>
       </c>
       <c r="G41" t="n">
-        <v>-1950627.850609276</v>
+        <v>4.325499999999998</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2003,6 +2047,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2024,7 +2069,7 @@
         <v>5237</v>
       </c>
       <c r="G42" t="n">
-        <v>-1945390.850609276</v>
+        <v>4.322999999999999</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2044,6 +2089,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2065,7 +2111,7 @@
         <v>1046450.599</v>
       </c>
       <c r="G43" t="n">
-        <v>-898940.2516092762</v>
+        <v>4.321999999999998</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2085,6 +2131,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2106,7 +2153,7 @@
         <v>7000</v>
       </c>
       <c r="G44" t="n">
-        <v>-891940.2516092762</v>
+        <v>4.323499999999998</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2126,6 +2173,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2147,7 +2195,7 @@
         <v>231122.8106</v>
       </c>
       <c r="G45" t="n">
-        <v>-660817.4410092762</v>
+        <v>4.325999999999999</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2167,6 +2215,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2188,7 +2237,7 @@
         <v>359460.7954</v>
       </c>
       <c r="G46" t="n">
-        <v>-301356.6456092762</v>
+        <v>4.327499999999999</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2208,6 +2257,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2229,7 +2279,7 @@
         <v>60000</v>
       </c>
       <c r="G47" t="n">
-        <v>-241356.6456092762</v>
+        <v>4.332499999999999</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2249,6 +2299,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2270,7 +2321,7 @@
         <v>109829.6164</v>
       </c>
       <c r="G48" t="n">
-        <v>-131527.0292092762</v>
+        <v>4.338499999999999</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2290,6 +2341,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2311,7 +2363,7 @@
         <v>37293.021</v>
       </c>
       <c r="G49" t="n">
-        <v>-168820.0502092762</v>
+        <v>4.345499999999999</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2331,6 +2383,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2352,7 +2405,7 @@
         <v>2033.3502</v>
       </c>
       <c r="G50" t="n">
-        <v>-168820.0502092762</v>
+        <v>4.351999999999999</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2372,6 +2425,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2393,7 +2447,7 @@
         <v>735310.9674</v>
       </c>
       <c r="G51" t="n">
-        <v>566490.9171907238</v>
+        <v>4.358</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2413,6 +2467,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2434,7 +2489,7 @@
         <v>103444.7236</v>
       </c>
       <c r="G52" t="n">
-        <v>669935.6407907238</v>
+        <v>4.3665</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2454,6 +2509,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2475,7 +2531,7 @@
         <v>147240.3646</v>
       </c>
       <c r="G53" t="n">
-        <v>522695.2761907239</v>
+        <v>4.3785</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2495,6 +2551,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2516,7 +2573,7 @@
         <v>416949.5081</v>
       </c>
       <c r="G54" t="n">
-        <v>939644.7842907239</v>
+        <v>4.3915</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2536,6 +2593,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2557,7 +2615,7 @@
         <v>960478.1181</v>
       </c>
       <c r="G55" t="n">
-        <v>-20833.33380927611</v>
+        <v>4.399</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2577,6 +2635,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2598,7 +2657,7 @@
         <v>35</v>
       </c>
       <c r="G56" t="n">
-        <v>-20868.33380927611</v>
+        <v>4.41</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2618,6 +2677,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2639,7 +2699,7 @@
         <v>22344.4285</v>
       </c>
       <c r="G57" t="n">
-        <v>-20868.33380927611</v>
+        <v>4.4225</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2659,6 +2719,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2680,7 +2741,7 @@
         <v>77576.94160000001</v>
       </c>
       <c r="G58" t="n">
-        <v>56708.60779072389</v>
+        <v>4.436</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2700,6 +2761,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2721,7 +2783,7 @@
         <v>14947.0225</v>
       </c>
       <c r="G59" t="n">
-        <v>71655.6302907239</v>
+        <v>4.4485</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2741,6 +2803,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2762,7 +2825,7 @@
         <v>167288.4828</v>
       </c>
       <c r="G60" t="n">
-        <v>238944.1130907239</v>
+        <v>4.4595</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2782,6 +2845,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2803,7 +2867,7 @@
         <v>215578.5800678959</v>
       </c>
       <c r="G61" t="n">
-        <v>454522.6931586198</v>
+        <v>4.467499999999999</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2823,6 +2887,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2844,7 +2909,7 @@
         <v>538557.9690957447</v>
       </c>
       <c r="G62" t="n">
-        <v>-84035.27593712485</v>
+        <v>4.484</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2864,6 +2929,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2885,13 +2951,13 @@
         <v>234350.9521321041</v>
       </c>
       <c r="G63" t="n">
-        <v>-318386.2280692289</v>
+        <v>4.499</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
@@ -2899,11 +2965,14 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>1</v>
+        <v>1.040871559633027</v>
+      </c>
+      <c r="N63" t="n">
+        <v>1.072992700729927</v>
       </c>
     </row>
     <row r="64">
@@ -2926,7 +2995,7 @@
         <v>15</v>
       </c>
       <c r="G64" t="n">
-        <v>-318371.2280692289</v>
+        <v>4.5175</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2935,17 +3004,12 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2967,7 +3031,7 @@
         <v>10</v>
       </c>
       <c r="G65" t="n">
-        <v>-318381.2280692289</v>
+        <v>4.528</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2976,17 +3040,12 @@
         <v>1</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
-        <v>1.043165137614679</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3008,13 +3067,13 @@
         <v>10</v>
       </c>
       <c r="G66" t="n">
-        <v>-318391.2280692289</v>
+        <v>4.536499999999999</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -3022,6 +3081,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3043,13 +3103,13 @@
         <v>16344.5498</v>
       </c>
       <c r="G67" t="n">
-        <v>-302046.678269229</v>
+        <v>4.542999999999999</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -3057,6 +3117,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3078,7 +3139,7 @@
         <v>83899.8912</v>
       </c>
       <c r="G68" t="n">
-        <v>-302046.678269229</v>
+        <v>4.548499999999999</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3092,6 +3153,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3113,13 +3175,13 @@
         <v>10</v>
       </c>
       <c r="G69" t="n">
-        <v>-302046.678269229</v>
+        <v>4.552999999999999</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -3127,6 +3189,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3148,13 +3211,13 @@
         <v>126818.4458</v>
       </c>
       <c r="G70" t="n">
-        <v>-302046.678269229</v>
+        <v>4.5585</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -3162,6 +3225,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3183,7 +3247,7 @@
         <v>154393.7994</v>
       </c>
       <c r="G71" t="n">
-        <v>-456440.4776692289</v>
+        <v>4.563499999999999</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3197,6 +3261,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3218,13 +3283,13 @@
         <v>19543.2097</v>
       </c>
       <c r="G72" t="n">
-        <v>-475983.6873692289</v>
+        <v>4.562499999999999</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -3232,6 +3297,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3253,7 +3319,7 @@
         <v>21387.5213</v>
       </c>
       <c r="G73" t="n">
-        <v>-497371.2086692289</v>
+        <v>4.556999999999999</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3267,6 +3333,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3288,7 +3355,7 @@
         <v>181426.0164</v>
       </c>
       <c r="G74" t="n">
-        <v>-315945.192269229</v>
+        <v>4.559499999999999</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3302,6 +3369,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3323,13 +3391,13 @@
         <v>400</v>
       </c>
       <c r="G75" t="n">
-        <v>-315545.192269229</v>
+        <v>4.566999999999999</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -3337,6 +3405,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3358,7 +3427,7 @@
         <v>35393.6021</v>
       </c>
       <c r="G76" t="n">
-        <v>-280151.590169229</v>
+        <v>4.576499999999999</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3372,6 +3441,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3393,7 +3463,7 @@
         <v>10</v>
       </c>
       <c r="G77" t="n">
-        <v>-280161.590169229</v>
+        <v>4.583999999999999</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3407,6 +3477,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3428,7 +3499,7 @@
         <v>18.1818</v>
       </c>
       <c r="G78" t="n">
-        <v>-280143.4083692289</v>
+        <v>4.591499999999999</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3442,6 +3513,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3463,13 +3535,13 @@
         <v>767.2198</v>
       </c>
       <c r="G79" t="n">
-        <v>-280910.628169229</v>
+        <v>4.595999999999999</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3477,6 +3549,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3498,13 +3571,13 @@
         <v>190</v>
       </c>
       <c r="G80" t="n">
-        <v>-281100.628169229</v>
+        <v>4.599499999999999</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3512,6 +3585,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3533,13 +3607,13 @@
         <v>26966.6125</v>
       </c>
       <c r="G81" t="n">
-        <v>-308067.240669229</v>
+        <v>4.606999999999999</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3547,6 +3621,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3568,13 +3643,13 @@
         <v>670000.2463999999</v>
       </c>
       <c r="G82" t="n">
-        <v>-978067.4870692289</v>
+        <v>4.604999999999999</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3582,6 +3657,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3603,13 +3679,13 @@
         <v>211.5468</v>
       </c>
       <c r="G83" t="n">
-        <v>-977855.9402692289</v>
+        <v>4.603</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3617,6 +3693,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3638,13 +3715,13 @@
         <v>40197.9257</v>
       </c>
       <c r="G84" t="n">
-        <v>-1018053.865969229</v>
+        <v>4.595999999999999</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3652,6 +3729,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3673,13 +3751,13 @@
         <v>1936.4628</v>
       </c>
       <c r="G85" t="n">
-        <v>-1018053.865969229</v>
+        <v>4.596499999999999</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3687,6 +3765,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3708,7 +3787,7 @@
         <v>18.1818</v>
       </c>
       <c r="G86" t="n">
-        <v>-1018053.865969229</v>
+        <v>4.597499999999998</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3722,6 +3801,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3743,7 +3823,7 @@
         <v>4848</v>
       </c>
       <c r="G87" t="n">
-        <v>-1013205.865969229</v>
+        <v>4.597499999999998</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3757,6 +3837,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3778,7 +3859,7 @@
         <v>69730.9368</v>
       </c>
       <c r="G88" t="n">
-        <v>-1013205.865969229</v>
+        <v>4.597999999999999</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3792,6 +3873,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3813,7 +3895,7 @@
         <v>47723.4267</v>
       </c>
       <c r="G89" t="n">
-        <v>-965482.439269229</v>
+        <v>4.5985</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3827,6 +3909,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3848,7 +3931,7 @@
         <v>4610.1818</v>
       </c>
       <c r="G90" t="n">
-        <v>-965482.439269229</v>
+        <v>4.5985</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3862,6 +3945,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3883,7 +3967,7 @@
         <v>19963.6364</v>
       </c>
       <c r="G91" t="n">
-        <v>-965482.439269229</v>
+        <v>4.599499999999999</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3897,6 +3981,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3918,7 +4003,7 @@
         <v>5004.013</v>
       </c>
       <c r="G92" t="n">
-        <v>-960478.4262692289</v>
+        <v>4.604999999999999</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3932,6 +4017,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3953,13 +4039,13 @@
         <v>168839.8183</v>
       </c>
       <c r="G93" t="n">
-        <v>-791638.6079692289</v>
+        <v>4.610999999999999</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -3967,6 +4053,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3988,13 +4075,13 @@
         <v>86186.75199999999</v>
       </c>
       <c r="G94" t="n">
-        <v>-877825.3599692289</v>
+        <v>4.609</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -4002,6 +4089,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4023,7 +4111,7 @@
         <v>199733.4772</v>
       </c>
       <c r="G95" t="n">
-        <v>-678091.8827692289</v>
+        <v>4.607999999999999</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4037,6 +4125,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4058,7 +4147,7 @@
         <v>21977.5772</v>
       </c>
       <c r="G96" t="n">
-        <v>-678091.8827692289</v>
+        <v>4.607499999999999</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4072,6 +4161,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4093,7 +4183,7 @@
         <v>82101.2316</v>
       </c>
       <c r="G97" t="n">
-        <v>-678091.8827692289</v>
+        <v>4.607999999999999</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4107,6 +4197,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4128,7 +4219,7 @@
         <v>159216.8858</v>
       </c>
       <c r="G98" t="n">
-        <v>-678091.8827692289</v>
+        <v>4.607499999999999</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4142,6 +4233,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4163,7 +4255,7 @@
         <v>14.9784</v>
       </c>
       <c r="G99" t="n">
-        <v>-678076.9043692289</v>
+        <v>4.607499999999999</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4177,6 +4269,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4198,7 +4291,7 @@
         <v>264</v>
       </c>
       <c r="G100" t="n">
-        <v>-678076.9043692289</v>
+        <v>4.607999999999999</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4212,6 +4305,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4233,7 +4327,7 @@
         <v>3572.418</v>
       </c>
       <c r="G101" t="n">
-        <v>-678076.9043692289</v>
+        <v>4.608999999999999</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4247,6 +4341,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4268,7 +4363,7 @@
         <v>297</v>
       </c>
       <c r="G102" t="n">
-        <v>-678076.9043692289</v>
+        <v>4.610999999999999</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4282,6 +4377,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4303,7 +4399,7 @@
         <v>165</v>
       </c>
       <c r="G103" t="n">
-        <v>-678076.9043692289</v>
+        <v>4.613499999999999</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4317,6 +4413,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4338,7 +4435,7 @@
         <v>18.1818</v>
       </c>
       <c r="G104" t="n">
-        <v>-678076.9043692289</v>
+        <v>4.616499999999999</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4352,6 +4449,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4373,7 +4471,7 @@
         <v>14.8491</v>
       </c>
       <c r="G105" t="n">
-        <v>-678076.9043692289</v>
+        <v>4.619499999999999</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4387,6 +4485,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4408,7 +4507,7 @@
         <v>1864.3857</v>
       </c>
       <c r="G106" t="n">
-        <v>-678076.9043692289</v>
+        <v>4.6225</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4422,6 +4521,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4443,7 +4543,7 @@
         <v>3232.7586</v>
       </c>
       <c r="G107" t="n">
-        <v>-678076.9043692289</v>
+        <v>4.6255</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4457,6 +4557,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4478,7 +4579,7 @@
         <v>1745.4302</v>
       </c>
       <c r="G108" t="n">
-        <v>-679822.3345692288</v>
+        <v>4.6275</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4492,6 +4593,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4513,7 +4615,7 @@
         <v>10775.862</v>
       </c>
       <c r="G109" t="n">
-        <v>-669046.4725692288</v>
+        <v>4.629999999999999</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4527,6 +4629,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4548,7 +4651,7 @@
         <v>50000</v>
       </c>
       <c r="G110" t="n">
-        <v>-719046.4725692288</v>
+        <v>4.631999999999999</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4562,6 +4665,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4583,7 +4687,7 @@
         <v>50799.136</v>
       </c>
       <c r="G111" t="n">
-        <v>-668247.3365692289</v>
+        <v>4.631499999999999</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4597,6 +4701,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4618,7 +4723,7 @@
         <v>1522.0909</v>
       </c>
       <c r="G112" t="n">
-        <v>-669769.4274692289</v>
+        <v>4.6305</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4632,6 +4737,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4653,13 +4759,13 @@
         <v>189704.2334</v>
       </c>
       <c r="G113" t="n">
-        <v>-480065.1940692288</v>
+        <v>4.631499999999999</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -4667,6 +4773,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4688,7 +4795,7 @@
         <v>18.1818</v>
       </c>
       <c r="G114" t="n">
-        <v>-480047.0122692288</v>
+        <v>4.632999999999999</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4702,6 +4809,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4723,7 +4831,7 @@
         <v>60018.1818</v>
       </c>
       <c r="G115" t="n">
-        <v>-480047.0122692288</v>
+        <v>4.6335</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4737,6 +4845,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4758,7 +4867,7 @@
         <v>3058.2666</v>
       </c>
       <c r="G116" t="n">
-        <v>-483105.2788692288</v>
+        <v>4.633999999999999</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4772,6 +4881,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4793,7 +4903,7 @@
         <v>70.1713</v>
       </c>
       <c r="G117" t="n">
-        <v>-483175.4501692288</v>
+        <v>4.633</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4807,6 +4917,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4828,7 +4939,7 @@
         <v>77.9091</v>
       </c>
       <c r="G118" t="n">
-        <v>-483253.3592692288</v>
+        <v>4.630999999999999</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4842,6 +4953,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4863,7 +4975,7 @@
         <v>18.1818</v>
       </c>
       <c r="G119" t="n">
-        <v>-483235.1774692287</v>
+        <v>4.630999999999999</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4877,6 +4989,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4898,7 +5011,7 @@
         <v>1727.1794</v>
       </c>
       <c r="G120" t="n">
-        <v>-484962.3568692288</v>
+        <v>4.6305</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4912,6 +5025,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4933,7 +5047,7 @@
         <v>152236.2576</v>
       </c>
       <c r="G121" t="n">
-        <v>-637198.6144692288</v>
+        <v>4.6275</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4947,6 +5061,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4968,13 +5083,13 @@
         <v>24580.0726</v>
       </c>
       <c r="G122" t="n">
-        <v>-661778.6870692287</v>
+        <v>4.622999999999999</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
@@ -4982,6 +5097,7 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5003,13 +5119,13 @@
         <v>39846</v>
       </c>
       <c r="G123" t="n">
-        <v>-701624.6870692287</v>
+        <v>4.616999999999999</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
@@ -5017,6 +5133,7 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5038,7 +5155,7 @@
         <v>11930</v>
       </c>
       <c r="G124" t="n">
-        <v>-713554.6870692287</v>
+        <v>4.610499999999999</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5052,6 +5169,7 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5073,7 +5191,7 @@
         <v>257207.9297</v>
       </c>
       <c r="G125" t="n">
-        <v>-970762.6167692287</v>
+        <v>4.603499999999999</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5087,6 +5205,7 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5108,7 +5227,7 @@
         <v>42162.6961</v>
       </c>
       <c r="G126" t="n">
-        <v>-1012925.312869229</v>
+        <v>4.591999999999999</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5122,6 +5241,7 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5143,7 +5263,7 @@
         <v>84892.78126148797</v>
       </c>
       <c r="G127" t="n">
-        <v>-928032.5316077407</v>
+        <v>4.579999999999999</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5157,6 +5277,7 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-28 BackTest BZNT.xlsx
+++ b/BackTest/2019-10-28 BackTest BZNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N127"/>
+  <dimension ref="A1:N156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.41</v>
+        <v>4.3</v>
       </c>
       <c r="C2" t="n">
-        <v>4.41</v>
+        <v>4.3</v>
       </c>
       <c r="D2" t="n">
-        <v>4.41</v>
+        <v>4.3</v>
       </c>
       <c r="E2" t="n">
-        <v>4.41</v>
+        <v>4.3</v>
       </c>
       <c r="F2" t="n">
-        <v>200</v>
+        <v>18.1818</v>
       </c>
       <c r="G2" t="n">
-        <v>4.396499999999998</v>
+        <v>540029.452</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,28 +474,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.4</v>
+        <v>4.29</v>
       </c>
       <c r="C3" t="n">
-        <v>4.4</v>
+        <v>4.29</v>
       </c>
       <c r="D3" t="n">
-        <v>4.4</v>
+        <v>4.29</v>
       </c>
       <c r="E3" t="n">
-        <v>4.4</v>
+        <v>4.29</v>
       </c>
       <c r="F3" t="n">
-        <v>578447</v>
+        <v>3826.1536</v>
       </c>
       <c r="G3" t="n">
-        <v>4.398999999999999</v>
+        <v>536203.2984000001</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -510,28 +510,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="C4" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="D4" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="E4" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="F4" t="n">
-        <v>113817.972</v>
+        <v>45790.5891</v>
       </c>
       <c r="G4" t="n">
-        <v>4.4015</v>
+        <v>581993.8875000001</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.41</v>
+        <v>4.33</v>
       </c>
       <c r="C5" t="n">
-        <v>4.41</v>
+        <v>4.33</v>
       </c>
       <c r="D5" t="n">
-        <v>4.41</v>
+        <v>4.33</v>
       </c>
       <c r="E5" t="n">
-        <v>4.41</v>
+        <v>4.33</v>
       </c>
       <c r="F5" t="n">
-        <v>10</v>
+        <v>78423.36410000001</v>
       </c>
       <c r="G5" t="n">
-        <v>4.403</v>
+        <v>660417.2516000001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.4</v>
+        <v>4.34</v>
       </c>
       <c r="C6" t="n">
-        <v>4.4</v>
+        <v>4.34</v>
       </c>
       <c r="D6" t="n">
-        <v>4.4</v>
+        <v>4.34</v>
       </c>
       <c r="E6" t="n">
-        <v>4.4</v>
+        <v>4.34</v>
       </c>
       <c r="F6" t="n">
-        <v>2509.425</v>
+        <v>38864.1586</v>
       </c>
       <c r="G6" t="n">
-        <v>4.404</v>
+        <v>699281.4102</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="C7" t="n">
-        <v>4.4</v>
+        <v>4.37</v>
       </c>
       <c r="D7" t="n">
-        <v>4.4</v>
+        <v>4.37</v>
       </c>
       <c r="E7" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="F7" t="n">
-        <v>110000</v>
+        <v>41382.3404</v>
       </c>
       <c r="G7" t="n">
-        <v>4.404500000000001</v>
+        <v>740663.7506</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.39</v>
+        <v>4.37</v>
       </c>
       <c r="C8" t="n">
-        <v>4.11</v>
+        <v>4.37</v>
       </c>
       <c r="D8" t="n">
-        <v>4.39</v>
+        <v>4.37</v>
       </c>
       <c r="E8" t="n">
-        <v>4.11</v>
+        <v>4.37</v>
       </c>
       <c r="F8" t="n">
-        <v>1490006.266</v>
+        <v>51000</v>
       </c>
       <c r="G8" t="n">
-        <v>4.4035</v>
+        <v>740663.7506</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,28 +690,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.4</v>
+        <v>4.37</v>
       </c>
       <c r="C9" t="n">
-        <v>4.4</v>
+        <v>4.37</v>
       </c>
       <c r="D9" t="n">
-        <v>4.4</v>
+        <v>4.37</v>
       </c>
       <c r="E9" t="n">
-        <v>4.4</v>
+        <v>4.37</v>
       </c>
       <c r="F9" t="n">
-        <v>240</v>
+        <v>800.6963</v>
       </c>
       <c r="G9" t="n">
-        <v>4.402000000000001</v>
+        <v>740663.7506</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.15</v>
+        <v>4.39</v>
       </c>
       <c r="C10" t="n">
-        <v>4.15</v>
+        <v>4.39</v>
       </c>
       <c r="D10" t="n">
-        <v>4.15</v>
+        <v>4.39</v>
       </c>
       <c r="E10" t="n">
-        <v>4.15</v>
+        <v>4.39</v>
       </c>
       <c r="F10" t="n">
-        <v>10</v>
+        <v>227.7904328018223</v>
       </c>
       <c r="G10" t="n">
-        <v>4.388000000000001</v>
+        <v>740891.5410328018</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.4</v>
+        <v>4.37</v>
       </c>
       <c r="C11" t="n">
-        <v>4.4</v>
+        <v>4.37</v>
       </c>
       <c r="D11" t="n">
-        <v>4.4</v>
+        <v>4.37</v>
       </c>
       <c r="E11" t="n">
-        <v>4.4</v>
+        <v>4.37</v>
       </c>
       <c r="F11" t="n">
-        <v>18</v>
+        <v>49199.3037</v>
       </c>
       <c r="G11" t="n">
-        <v>4.386500000000001</v>
+        <v>691692.2373328018</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="C12" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="D12" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="E12" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="F12" t="n">
-        <v>18</v>
+        <v>62333.5425</v>
       </c>
       <c r="G12" t="n">
-        <v>4.380500000000001</v>
+        <v>629358.6948328018</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="C13" t="n">
-        <v>4.3</v>
+        <v>4.37</v>
       </c>
       <c r="D13" t="n">
-        <v>4.3</v>
+        <v>4.37</v>
       </c>
       <c r="E13" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="F13" t="n">
-        <v>81830.27959999999</v>
+        <v>54104.3995</v>
       </c>
       <c r="G13" t="n">
-        <v>4.374000000000001</v>
+        <v>683463.0943328019</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.3</v>
+        <v>4.38</v>
       </c>
       <c r="C14" t="n">
-        <v>4.37</v>
+        <v>4.38</v>
       </c>
       <c r="D14" t="n">
-        <v>4.37</v>
+        <v>4.38</v>
       </c>
       <c r="E14" t="n">
-        <v>4.3</v>
+        <v>4.38</v>
       </c>
       <c r="F14" t="n">
-        <v>28200</v>
+        <v>11285.6164</v>
       </c>
       <c r="G14" t="n">
-        <v>4.368</v>
+        <v>694748.7107328019</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,35 +906,31 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.34</v>
+        <v>4.38</v>
       </c>
       <c r="C15" t="n">
-        <v>4.34</v>
+        <v>4.39</v>
       </c>
       <c r="D15" t="n">
-        <v>4.34</v>
+        <v>4.39</v>
       </c>
       <c r="E15" t="n">
-        <v>4.34</v>
+        <v>4.38</v>
       </c>
       <c r="F15" t="n">
-        <v>122805.864</v>
+        <v>91667.5258</v>
       </c>
       <c r="G15" t="n">
-        <v>4.365</v>
+        <v>786416.236532802</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K15" t="n">
-        <v>4.37</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
@@ -946,40 +942,32 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.34</v>
+        <v>4.39</v>
       </c>
       <c r="C16" t="n">
-        <v>4.34</v>
+        <v>4.42</v>
       </c>
       <c r="D16" t="n">
-        <v>4.34</v>
+        <v>4.42</v>
       </c>
       <c r="E16" t="n">
-        <v>4.34</v>
+        <v>4.39</v>
       </c>
       <c r="F16" t="n">
-        <v>17516.0308</v>
+        <v>113750.6493579222</v>
       </c>
       <c r="G16" t="n">
-        <v>4.368500000000001</v>
+        <v>900166.8858907241</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="K16" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -990,40 +978,32 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.37</v>
+        <v>4.41</v>
       </c>
       <c r="C17" t="n">
-        <v>4.37</v>
+        <v>4.41</v>
       </c>
       <c r="D17" t="n">
-        <v>4.37</v>
+        <v>4.41</v>
       </c>
       <c r="E17" t="n">
-        <v>4.37</v>
+        <v>4.41</v>
       </c>
       <c r="F17" t="n">
-        <v>10</v>
+        <v>10065.823</v>
       </c>
       <c r="G17" t="n">
-        <v>4.366500000000001</v>
+        <v>890101.0628907242</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="K17" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1034,35 +1014,31 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.3</v>
+        <v>4.43</v>
       </c>
       <c r="C18" t="n">
-        <v>4.3</v>
+        <v>4.41</v>
       </c>
       <c r="D18" t="n">
-        <v>4.3</v>
+        <v>4.43</v>
       </c>
       <c r="E18" t="n">
-        <v>4.3</v>
+        <v>4.41</v>
       </c>
       <c r="F18" t="n">
-        <v>101344.186</v>
+        <v>110000</v>
       </c>
       <c r="G18" t="n">
-        <v>4.361000000000002</v>
+        <v>890101.0628907242</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K18" t="n">
-        <v>4.37</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
@@ -1074,40 +1050,32 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.3</v>
+        <v>4.43</v>
       </c>
       <c r="C19" t="n">
-        <v>4.3</v>
+        <v>4.43</v>
       </c>
       <c r="D19" t="n">
-        <v>4.3</v>
+        <v>4.43</v>
       </c>
       <c r="E19" t="n">
-        <v>4.3</v>
+        <v>4.43</v>
       </c>
       <c r="F19" t="n">
-        <v>48655.814</v>
+        <v>64000</v>
       </c>
       <c r="G19" t="n">
-        <v>4.356000000000001</v>
+        <v>954101.0628907242</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K19" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1118,40 +1086,32 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.36</v>
+        <v>4.43</v>
       </c>
       <c r="C20" t="n">
-        <v>4.36</v>
+        <v>4.43</v>
       </c>
       <c r="D20" t="n">
-        <v>4.36</v>
+        <v>4.43</v>
       </c>
       <c r="E20" t="n">
-        <v>4.36</v>
+        <v>4.43</v>
       </c>
       <c r="F20" t="n">
-        <v>18.1818</v>
+        <v>64.36539999999999</v>
       </c>
       <c r="G20" t="n">
-        <v>4.353500000000001</v>
+        <v>954101.0628907242</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K20" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1162,35 +1122,31 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.37</v>
+        <v>4.42</v>
       </c>
       <c r="C21" t="n">
-        <v>4.37</v>
+        <v>4.42</v>
       </c>
       <c r="D21" t="n">
-        <v>4.37</v>
+        <v>4.42</v>
       </c>
       <c r="E21" t="n">
-        <v>4.37</v>
+        <v>4.42</v>
       </c>
       <c r="F21" t="n">
-        <v>18.1818</v>
+        <v>30000</v>
       </c>
       <c r="G21" t="n">
-        <v>4.352000000000001</v>
+        <v>924101.0628907242</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="K21" t="n">
-        <v>4.36</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
@@ -1202,40 +1158,32 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.36</v>
+        <v>4.43</v>
       </c>
       <c r="C22" t="n">
-        <v>4.35</v>
+        <v>4.43</v>
       </c>
       <c r="D22" t="n">
-        <v>4.36</v>
+        <v>4.43</v>
       </c>
       <c r="E22" t="n">
-        <v>4.35</v>
+        <v>4.43</v>
       </c>
       <c r="F22" t="n">
-        <v>115027.1597</v>
+        <v>25.1354</v>
       </c>
       <c r="G22" t="n">
-        <v>4.349500000000001</v>
+        <v>924126.1982907242</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K22" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1246,40 +1194,32 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.35</v>
+        <v>4.42</v>
       </c>
       <c r="C23" t="n">
-        <v>4.32</v>
+        <v>4.42</v>
       </c>
       <c r="D23" t="n">
-        <v>4.35</v>
+        <v>4.42</v>
       </c>
       <c r="E23" t="n">
-        <v>4.32</v>
+        <v>4.42</v>
       </c>
       <c r="F23" t="n">
-        <v>115424.4438</v>
+        <v>2698.4162</v>
       </c>
       <c r="G23" t="n">
-        <v>4.347</v>
+        <v>921427.7820907242</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="K23" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1290,40 +1230,32 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.32</v>
+        <v>4.4</v>
       </c>
       <c r="C24" t="n">
-        <v>4.32</v>
+        <v>4.28</v>
       </c>
       <c r="D24" t="n">
-        <v>4.32</v>
+        <v>4.4</v>
       </c>
       <c r="E24" t="n">
-        <v>4.32</v>
+        <v>4.28</v>
       </c>
       <c r="F24" t="n">
-        <v>703.0198</v>
+        <v>13615.5047</v>
       </c>
       <c r="G24" t="n">
-        <v>4.343000000000001</v>
+        <v>907812.2773907242</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="K24" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1334,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.31</v>
+        <v>4.27</v>
       </c>
       <c r="C25" t="n">
-        <v>4.3</v>
+        <v>4.27</v>
       </c>
       <c r="D25" t="n">
-        <v>4.31</v>
+        <v>4.27</v>
       </c>
       <c r="E25" t="n">
-        <v>4.3</v>
+        <v>4.27</v>
       </c>
       <c r="F25" t="n">
-        <v>2314.6924</v>
+        <v>16384.4953</v>
       </c>
       <c r="G25" t="n">
-        <v>4.338000000000001</v>
+        <v>891427.7820907242</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
@@ -1358,16 +1290,12 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>4.32</v>
+        <v>4.28</v>
       </c>
       <c r="K25" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>4.28</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1378,22 +1306,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.36</v>
+        <v>4.41</v>
       </c>
       <c r="C26" t="n">
-        <v>4.36</v>
+        <v>4.41</v>
       </c>
       <c r="D26" t="n">
-        <v>4.36</v>
+        <v>4.41</v>
       </c>
       <c r="E26" t="n">
-        <v>4.36</v>
+        <v>4.41</v>
       </c>
       <c r="F26" t="n">
         <v>10</v>
       </c>
       <c r="G26" t="n">
-        <v>4.336</v>
+        <v>891437.7820907242</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
@@ -1402,14 +1330,14 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>4.3</v>
+        <v>4.27</v>
       </c>
       <c r="K26" t="n">
-        <v>4.36</v>
+        <v>4.28</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M26" t="n">
@@ -1422,22 +1350,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.35</v>
+        <v>4.41</v>
       </c>
       <c r="C27" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="D27" t="n">
-        <v>4.35</v>
+        <v>4.41</v>
       </c>
       <c r="E27" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="F27" t="n">
-        <v>186767.793</v>
+        <v>71634.01360000001</v>
       </c>
       <c r="G27" t="n">
-        <v>4.3335</v>
+        <v>819803.7684907243</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1447,11 +1375,11 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>4.36</v>
+        <v>4.28</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M27" t="n">
@@ -1464,22 +1392,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="C28" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="D28" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="E28" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="F28" t="n">
-        <v>31741.3211</v>
+        <v>133494.0347</v>
       </c>
       <c r="G28" t="n">
-        <v>4.3315</v>
+        <v>819803.7684907243</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1488,14 +1416,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1506,22 +1428,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.35</v>
+        <v>4.41</v>
       </c>
       <c r="C29" t="n">
-        <v>4.35</v>
+        <v>4.41</v>
       </c>
       <c r="D29" t="n">
-        <v>4.35</v>
+        <v>4.41</v>
       </c>
       <c r="E29" t="n">
-        <v>4.35</v>
+        <v>4.41</v>
       </c>
       <c r="F29" t="n">
-        <v>10203.6828</v>
+        <v>10</v>
       </c>
       <c r="G29" t="n">
-        <v>4.328999999999999</v>
+        <v>819813.7684907243</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1530,14 +1452,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1548,22 +1464,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="C30" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="D30" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="E30" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="F30" t="n">
-        <v>12000</v>
+        <v>47671.766</v>
       </c>
       <c r="G30" t="n">
-        <v>4.338999999999999</v>
+        <v>772142.0024907242</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1572,14 +1488,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1590,22 +1500,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.36</v>
+        <v>4.41</v>
       </c>
       <c r="C31" t="n">
-        <v>4.36</v>
+        <v>4.41</v>
       </c>
       <c r="D31" t="n">
-        <v>4.36</v>
+        <v>4.41</v>
       </c>
       <c r="E31" t="n">
-        <v>4.36</v>
+        <v>4.41</v>
       </c>
       <c r="F31" t="n">
-        <v>17.2584</v>
+        <v>200</v>
       </c>
       <c r="G31" t="n">
-        <v>4.336999999999998</v>
+        <v>772342.0024907242</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1614,14 +1524,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1632,22 +1536,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="C32" t="n">
-        <v>4.22</v>
+        <v>4.4</v>
       </c>
       <c r="D32" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="E32" t="n">
-        <v>4.22</v>
+        <v>4.4</v>
       </c>
       <c r="F32" t="n">
-        <v>5000</v>
+        <v>578447</v>
       </c>
       <c r="G32" t="n">
-        <v>4.339499999999998</v>
+        <v>193895.0024907242</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1656,14 +1560,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1674,22 +1572,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.36</v>
+        <v>4.4</v>
       </c>
       <c r="C33" t="n">
-        <v>4.36</v>
+        <v>4.4</v>
       </c>
       <c r="D33" t="n">
-        <v>4.36</v>
+        <v>4.4</v>
       </c>
       <c r="E33" t="n">
-        <v>4.36</v>
+        <v>4.4</v>
       </c>
       <c r="F33" t="n">
-        <v>10</v>
+        <v>113817.972</v>
       </c>
       <c r="G33" t="n">
-        <v>4.342499999999998</v>
+        <v>193895.0024907242</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1698,14 +1596,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1716,22 +1608,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.35</v>
+        <v>4.41</v>
       </c>
       <c r="C34" t="n">
-        <v>4.35</v>
+        <v>4.41</v>
       </c>
       <c r="D34" t="n">
-        <v>4.35</v>
+        <v>4.41</v>
       </c>
       <c r="E34" t="n">
-        <v>4.35</v>
+        <v>4.41</v>
       </c>
       <c r="F34" t="n">
-        <v>7606.8321</v>
+        <v>10</v>
       </c>
       <c r="G34" t="n">
-        <v>4.344999999999998</v>
+        <v>193905.0024907242</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1740,14 +1632,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1758,22 +1644,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="C35" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="D35" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="E35" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="F35" t="n">
-        <v>200</v>
+        <v>2509.425</v>
       </c>
       <c r="G35" t="n">
-        <v>4.345499999999998</v>
+        <v>191395.5774907242</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1782,14 +1668,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1800,22 +1680,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.23</v>
+        <v>4.4</v>
       </c>
       <c r="C36" t="n">
-        <v>4.23</v>
+        <v>4.4</v>
       </c>
       <c r="D36" t="n">
-        <v>4.23</v>
+        <v>4.4</v>
       </c>
       <c r="E36" t="n">
-        <v>4.23</v>
+        <v>4.4</v>
       </c>
       <c r="F36" t="n">
-        <v>86120</v>
+        <v>110000</v>
       </c>
       <c r="G36" t="n">
-        <v>4.339999999999998</v>
+        <v>191395.5774907242</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1824,14 +1704,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1842,36 +1716,36 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.23</v>
+        <v>4.39</v>
       </c>
       <c r="C37" t="n">
-        <v>4.23</v>
+        <v>4.11</v>
       </c>
       <c r="D37" t="n">
-        <v>4.23</v>
+        <v>4.39</v>
       </c>
       <c r="E37" t="n">
-        <v>4.23</v>
+        <v>4.11</v>
       </c>
       <c r="F37" t="n">
-        <v>19186.3226</v>
+        <v>1490006.266</v>
       </c>
       <c r="G37" t="n">
-        <v>4.332999999999998</v>
+        <v>-1298610.688509276</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>4.36</v>
-      </c>
+      <c r="J37" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M37" t="n">
@@ -1884,35 +1758,31 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.23</v>
+        <v>4.4</v>
       </c>
       <c r="C38" t="n">
-        <v>4.34</v>
+        <v>4.4</v>
       </c>
       <c r="D38" t="n">
-        <v>4.34</v>
+        <v>4.4</v>
       </c>
       <c r="E38" t="n">
-        <v>4.23</v>
+        <v>4.4</v>
       </c>
       <c r="F38" t="n">
-        <v>94657.1869</v>
+        <v>240</v>
       </c>
       <c r="G38" t="n">
-        <v>4.329499999999998</v>
+        <v>-1298370.688509276</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K38" t="n">
-        <v>4.36</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1928,22 +1798,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.3</v>
+        <v>4.15</v>
       </c>
       <c r="C39" t="n">
-        <v>4.25</v>
+        <v>4.15</v>
       </c>
       <c r="D39" t="n">
-        <v>4.3</v>
+        <v>4.15</v>
       </c>
       <c r="E39" t="n">
-        <v>4.25</v>
+        <v>4.15</v>
       </c>
       <c r="F39" t="n">
-        <v>32777</v>
+        <v>10</v>
       </c>
       <c r="G39" t="n">
-        <v>4.329499999999998</v>
+        <v>-1298380.688509276</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1952,9 +1822,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>4.36</v>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1970,22 +1838,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.34</v>
+        <v>4.4</v>
       </c>
       <c r="C40" t="n">
-        <v>4.34</v>
+        <v>4.4</v>
       </c>
       <c r="D40" t="n">
-        <v>4.34</v>
+        <v>4.4</v>
       </c>
       <c r="E40" t="n">
-        <v>4.34</v>
+        <v>4.4</v>
       </c>
       <c r="F40" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="G40" t="n">
-        <v>4.328499999999998</v>
+        <v>-1298362.688509276</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1994,9 +1862,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>4.36</v>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2012,22 +1878,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.31</v>
+        <v>4.3</v>
       </c>
       <c r="C41" t="n">
-        <v>4.31</v>
+        <v>4.3</v>
       </c>
       <c r="D41" t="n">
-        <v>4.31</v>
+        <v>4.3</v>
       </c>
       <c r="E41" t="n">
-        <v>4.31</v>
+        <v>4.3</v>
       </c>
       <c r="F41" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="G41" t="n">
-        <v>4.325499999999998</v>
+        <v>-1298380.688509276</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2036,9 +1902,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>4.36</v>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2054,22 +1918,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.31</v>
+        <v>4.3</v>
       </c>
       <c r="C42" t="n">
-        <v>4.34</v>
+        <v>4.3</v>
       </c>
       <c r="D42" t="n">
-        <v>4.34</v>
+        <v>4.3</v>
       </c>
       <c r="E42" t="n">
-        <v>4.31</v>
+        <v>4.3</v>
       </c>
       <c r="F42" t="n">
-        <v>5237</v>
+        <v>81830.27959999999</v>
       </c>
       <c r="G42" t="n">
-        <v>4.322999999999999</v>
+        <v>-1298380.688509276</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2078,9 +1942,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>4.36</v>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2096,33 +1958,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.33</v>
+        <v>4.3</v>
       </c>
       <c r="C43" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="D43" t="n">
-        <v>4.35</v>
+        <v>4.37</v>
       </c>
       <c r="E43" t="n">
-        <v>4.33</v>
+        <v>4.3</v>
       </c>
       <c r="F43" t="n">
-        <v>1046450.599</v>
+        <v>28200</v>
       </c>
       <c r="G43" t="n">
-        <v>4.321999999999998</v>
+        <v>-1270180.688509276</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>4.36</v>
-      </c>
+      <c r="J43" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2138,22 +2000,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.35</v>
+        <v>4.34</v>
       </c>
       <c r="C44" t="n">
-        <v>4.36</v>
+        <v>4.34</v>
       </c>
       <c r="D44" t="n">
-        <v>4.36</v>
+        <v>4.34</v>
       </c>
       <c r="E44" t="n">
-        <v>4.35</v>
+        <v>4.34</v>
       </c>
       <c r="F44" t="n">
-        <v>7000</v>
+        <v>122805.864</v>
       </c>
       <c r="G44" t="n">
-        <v>4.323499999999998</v>
+        <v>-1392986.552509276</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2162,9 +2024,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>4.36</v>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2180,33 +2040,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.36</v>
+        <v>4.34</v>
       </c>
       <c r="C45" t="n">
-        <v>4.39</v>
+        <v>4.34</v>
       </c>
       <c r="D45" t="n">
-        <v>4.4</v>
+        <v>4.34</v>
       </c>
       <c r="E45" t="n">
-        <v>4.36</v>
+        <v>4.34</v>
       </c>
       <c r="F45" t="n">
-        <v>231122.8106</v>
+        <v>17516.0308</v>
       </c>
       <c r="G45" t="n">
-        <v>4.325999999999999</v>
+        <v>-1392986.552509276</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>4.36</v>
-      </c>
+      <c r="J45" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2222,22 +2082,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.39</v>
+        <v>4.37</v>
       </c>
       <c r="C46" t="n">
-        <v>4.45</v>
+        <v>4.37</v>
       </c>
       <c r="D46" t="n">
-        <v>4.45</v>
+        <v>4.37</v>
       </c>
       <c r="E46" t="n">
-        <v>4.39</v>
+        <v>4.37</v>
       </c>
       <c r="F46" t="n">
-        <v>359460.7954</v>
+        <v>10</v>
       </c>
       <c r="G46" t="n">
-        <v>4.327499999999999</v>
+        <v>-1392976.552509276</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2246,9 +2106,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>4.36</v>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2264,33 +2122,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.45</v>
+        <v>4.3</v>
       </c>
       <c r="C47" t="n">
-        <v>4.47</v>
+        <v>4.3</v>
       </c>
       <c r="D47" t="n">
-        <v>4.47</v>
+        <v>4.3</v>
       </c>
       <c r="E47" t="n">
-        <v>4.45</v>
+        <v>4.3</v>
       </c>
       <c r="F47" t="n">
-        <v>60000</v>
+        <v>101344.186</v>
       </c>
       <c r="G47" t="n">
-        <v>4.332499999999999</v>
+        <v>-1494320.738509276</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>4.36</v>
-      </c>
+      <c r="J47" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2306,33 +2164,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.47</v>
+        <v>4.3</v>
       </c>
       <c r="C48" t="n">
-        <v>4.49</v>
+        <v>4.3</v>
       </c>
       <c r="D48" t="n">
-        <v>4.49</v>
+        <v>4.3</v>
       </c>
       <c r="E48" t="n">
-        <v>4.47</v>
+        <v>4.3</v>
       </c>
       <c r="F48" t="n">
-        <v>109829.6164</v>
+        <v>48655.814</v>
       </c>
       <c r="G48" t="n">
-        <v>4.338499999999999</v>
+        <v>-1494320.738509276</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>4.36</v>
-      </c>
+      <c r="J48" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2348,33 +2206,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.49</v>
+        <v>4.36</v>
       </c>
       <c r="C49" t="n">
-        <v>4.48</v>
+        <v>4.36</v>
       </c>
       <c r="D49" t="n">
-        <v>4.49</v>
+        <v>4.36</v>
       </c>
       <c r="E49" t="n">
-        <v>4.47</v>
+        <v>4.36</v>
       </c>
       <c r="F49" t="n">
-        <v>37293.021</v>
+        <v>18.1818</v>
       </c>
       <c r="G49" t="n">
-        <v>4.345499999999999</v>
+        <v>-1494302.556709276</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>4.36</v>
-      </c>
+      <c r="J49" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2390,33 +2248,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.48</v>
+        <v>4.37</v>
       </c>
       <c r="C50" t="n">
-        <v>4.48</v>
+        <v>4.37</v>
       </c>
       <c r="D50" t="n">
-        <v>4.48</v>
+        <v>4.37</v>
       </c>
       <c r="E50" t="n">
-        <v>4.48</v>
+        <v>4.37</v>
       </c>
       <c r="F50" t="n">
-        <v>2033.3502</v>
+        <v>18.1818</v>
       </c>
       <c r="G50" t="n">
-        <v>4.351999999999999</v>
+        <v>-1494284.374909276</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
+      <c r="J50" t="n">
         <v>4.36</v>
       </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2432,33 +2290,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.48</v>
+        <v>4.36</v>
       </c>
       <c r="C51" t="n">
-        <v>4.5</v>
+        <v>4.35</v>
       </c>
       <c r="D51" t="n">
-        <v>4.5</v>
+        <v>4.36</v>
       </c>
       <c r="E51" t="n">
-        <v>4.48</v>
+        <v>4.35</v>
       </c>
       <c r="F51" t="n">
-        <v>735310.9674</v>
+        <v>115027.1597</v>
       </c>
       <c r="G51" t="n">
-        <v>4.358</v>
+        <v>-1609311.534609276</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>4.36</v>
-      </c>
+      <c r="J51" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2474,22 +2332,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.52</v>
+        <v>4.35</v>
       </c>
       <c r="C52" t="n">
-        <v>4.6</v>
+        <v>4.32</v>
       </c>
       <c r="D52" t="n">
-        <v>4.6</v>
+        <v>4.35</v>
       </c>
       <c r="E52" t="n">
-        <v>4.5</v>
+        <v>4.32</v>
       </c>
       <c r="F52" t="n">
-        <v>103444.7236</v>
+        <v>115424.4438</v>
       </c>
       <c r="G52" t="n">
-        <v>4.3665</v>
+        <v>-1724735.978409276</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2498,9 +2356,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>4.36</v>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2516,22 +2372,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.6</v>
+        <v>4.32</v>
       </c>
       <c r="C53" t="n">
-        <v>4.54</v>
+        <v>4.32</v>
       </c>
       <c r="D53" t="n">
-        <v>4.61</v>
+        <v>4.32</v>
       </c>
       <c r="E53" t="n">
-        <v>4.51</v>
+        <v>4.32</v>
       </c>
       <c r="F53" t="n">
-        <v>147240.3646</v>
+        <v>703.0198</v>
       </c>
       <c r="G53" t="n">
-        <v>4.3785</v>
+        <v>-1724735.978409276</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2540,9 +2396,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>4.36</v>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2558,33 +2412,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.61</v>
+        <v>4.31</v>
       </c>
       <c r="C54" t="n">
-        <v>4.61</v>
+        <v>4.3</v>
       </c>
       <c r="D54" t="n">
-        <v>4.61</v>
+        <v>4.31</v>
       </c>
       <c r="E54" t="n">
-        <v>4.52</v>
+        <v>4.3</v>
       </c>
       <c r="F54" t="n">
-        <v>416949.5081</v>
+        <v>2314.6924</v>
       </c>
       <c r="G54" t="n">
-        <v>4.3915</v>
+        <v>-1727050.670809276</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>4.36</v>
-      </c>
+      <c r="J54" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2600,22 +2454,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.5</v>
+        <v>4.36</v>
       </c>
       <c r="C55" t="n">
-        <v>4.59</v>
+        <v>4.36</v>
       </c>
       <c r="D55" t="n">
-        <v>4.59</v>
+        <v>4.36</v>
       </c>
       <c r="E55" t="n">
-        <v>4.47</v>
+        <v>4.36</v>
       </c>
       <c r="F55" t="n">
-        <v>960478.1181</v>
+        <v>10</v>
       </c>
       <c r="G55" t="n">
-        <v>4.399</v>
+        <v>-1727040.670809276</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2624,9 +2478,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>4.36</v>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2642,22 +2494,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.45</v>
+        <v>4.35</v>
       </c>
       <c r="C56" t="n">
-        <v>4.44</v>
+        <v>4.35</v>
       </c>
       <c r="D56" t="n">
-        <v>4.58</v>
+        <v>4.35</v>
       </c>
       <c r="E56" t="n">
-        <v>4.44</v>
+        <v>4.35</v>
       </c>
       <c r="F56" t="n">
-        <v>35</v>
+        <v>186767.793</v>
       </c>
       <c r="G56" t="n">
-        <v>4.41</v>
+        <v>-1913808.463809276</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2666,9 +2518,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>4.36</v>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2684,22 +2534,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.48</v>
+        <v>4.35</v>
       </c>
       <c r="C57" t="n">
-        <v>4.44</v>
+        <v>4.35</v>
       </c>
       <c r="D57" t="n">
-        <v>4.58</v>
+        <v>4.35</v>
       </c>
       <c r="E57" t="n">
-        <v>4.44</v>
+        <v>4.35</v>
       </c>
       <c r="F57" t="n">
-        <v>22344.4285</v>
+        <v>31741.3211</v>
       </c>
       <c r="G57" t="n">
-        <v>4.4225</v>
+        <v>-1913808.463809276</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2708,9 +2558,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>4.36</v>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2726,22 +2574,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.5</v>
+        <v>4.35</v>
       </c>
       <c r="C58" t="n">
-        <v>4.5</v>
+        <v>4.35</v>
       </c>
       <c r="D58" t="n">
-        <v>4.5</v>
+        <v>4.35</v>
       </c>
       <c r="E58" t="n">
-        <v>4.45</v>
+        <v>4.35</v>
       </c>
       <c r="F58" t="n">
-        <v>77576.94160000001</v>
+        <v>10203.6828</v>
       </c>
       <c r="G58" t="n">
-        <v>4.436</v>
+        <v>-1913808.463809276</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2750,9 +2598,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>4.36</v>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2768,22 +2614,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.55</v>
+        <v>4.35</v>
       </c>
       <c r="C59" t="n">
-        <v>4.56</v>
+        <v>4.35</v>
       </c>
       <c r="D59" t="n">
-        <v>4.56</v>
+        <v>4.35</v>
       </c>
       <c r="E59" t="n">
-        <v>4.55</v>
+        <v>4.35</v>
       </c>
       <c r="F59" t="n">
-        <v>14947.0225</v>
+        <v>12000</v>
       </c>
       <c r="G59" t="n">
-        <v>4.4485</v>
+        <v>-1913808.463809276</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2792,9 +2638,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>4.36</v>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2810,22 +2654,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.56</v>
+        <v>4.36</v>
       </c>
       <c r="C60" t="n">
-        <v>4.62</v>
+        <v>4.36</v>
       </c>
       <c r="D60" t="n">
-        <v>4.62</v>
+        <v>4.36</v>
       </c>
       <c r="E60" t="n">
-        <v>4.56</v>
+        <v>4.36</v>
       </c>
       <c r="F60" t="n">
-        <v>167288.4828</v>
+        <v>17.2584</v>
       </c>
       <c r="G60" t="n">
-        <v>4.4595</v>
+        <v>-1913791.205409276</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2834,9 +2678,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>4.36</v>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2852,22 +2694,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.47</v>
+        <v>4.35</v>
       </c>
       <c r="C61" t="n">
-        <v>4.64</v>
+        <v>4.22</v>
       </c>
       <c r="D61" t="n">
-        <v>4.64</v>
+        <v>4.35</v>
       </c>
       <c r="E61" t="n">
-        <v>4.47</v>
+        <v>4.22</v>
       </c>
       <c r="F61" t="n">
-        <v>215578.5800678959</v>
+        <v>5000</v>
       </c>
       <c r="G61" t="n">
-        <v>4.467499999999999</v>
+        <v>-1918791.205409276</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2876,9 +2718,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>4.36</v>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2894,22 +2734,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.64</v>
+        <v>4.36</v>
       </c>
       <c r="C62" t="n">
-        <v>4.63</v>
+        <v>4.36</v>
       </c>
       <c r="D62" t="n">
-        <v>4.7</v>
+        <v>4.36</v>
       </c>
       <c r="E62" t="n">
-        <v>4.63</v>
+        <v>4.36</v>
       </c>
       <c r="F62" t="n">
-        <v>538557.9690957447</v>
+        <v>10</v>
       </c>
       <c r="G62" t="n">
-        <v>4.484</v>
+        <v>-1918781.205409276</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2918,9 +2758,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>4.36</v>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2936,66 +2774,62 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.63</v>
+        <v>4.35</v>
       </c>
       <c r="C63" t="n">
-        <v>4.56</v>
+        <v>4.35</v>
       </c>
       <c r="D63" t="n">
-        <v>4.72</v>
+        <v>4.35</v>
       </c>
       <c r="E63" t="n">
-        <v>4.56</v>
+        <v>4.35</v>
       </c>
       <c r="F63" t="n">
-        <v>234350.9521321041</v>
+        <v>7606.8321</v>
       </c>
       <c r="G63" t="n">
-        <v>4.499</v>
+        <v>-1926388.037509276</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>4.36</v>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>1.040871559633027</v>
-      </c>
-      <c r="N63" t="n">
-        <v>1.072992700729927</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.72</v>
+        <v>4.35</v>
       </c>
       <c r="C64" t="n">
-        <v>4.72</v>
+        <v>4.35</v>
       </c>
       <c r="D64" t="n">
-        <v>4.72</v>
+        <v>4.35</v>
       </c>
       <c r="E64" t="n">
-        <v>4.72</v>
+        <v>4.35</v>
       </c>
       <c r="F64" t="n">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="G64" t="n">
-        <v>4.5175</v>
+        <v>-1926388.037509276</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -3005,7 +2839,11 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3016,32 +2854,36 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.57</v>
+        <v>4.23</v>
       </c>
       <c r="C65" t="n">
-        <v>4.57</v>
+        <v>4.23</v>
       </c>
       <c r="D65" t="n">
-        <v>4.57</v>
+        <v>4.23</v>
       </c>
       <c r="E65" t="n">
-        <v>4.57</v>
+        <v>4.23</v>
       </c>
       <c r="F65" t="n">
-        <v>10</v>
+        <v>86120</v>
       </c>
       <c r="G65" t="n">
-        <v>4.528</v>
+        <v>-2012508.037509276</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3052,32 +2894,36 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.56</v>
+        <v>4.23</v>
       </c>
       <c r="C66" t="n">
-        <v>4.56</v>
+        <v>4.23</v>
       </c>
       <c r="D66" t="n">
-        <v>4.56</v>
+        <v>4.23</v>
       </c>
       <c r="E66" t="n">
-        <v>4.56</v>
+        <v>4.23</v>
       </c>
       <c r="F66" t="n">
-        <v>10</v>
+        <v>19186.3226</v>
       </c>
       <c r="G66" t="n">
-        <v>4.536499999999999</v>
+        <v>-2012508.037509276</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3088,32 +2934,36 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.58</v>
+        <v>4.23</v>
       </c>
       <c r="C67" t="n">
-        <v>4.58</v>
+        <v>4.34</v>
       </c>
       <c r="D67" t="n">
-        <v>4.58</v>
+        <v>4.34</v>
       </c>
       <c r="E67" t="n">
-        <v>4.58</v>
+        <v>4.23</v>
       </c>
       <c r="F67" t="n">
-        <v>16344.5498</v>
+        <v>94657.1869</v>
       </c>
       <c r="G67" t="n">
-        <v>4.542999999999999</v>
+        <v>-1917850.850609276</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3124,22 +2974,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.58</v>
+        <v>4.3</v>
       </c>
       <c r="C68" t="n">
-        <v>4.58</v>
+        <v>4.25</v>
       </c>
       <c r="D68" t="n">
-        <v>4.58</v>
+        <v>4.3</v>
       </c>
       <c r="E68" t="n">
-        <v>4.57</v>
+        <v>4.25</v>
       </c>
       <c r="F68" t="n">
-        <v>83899.8912</v>
+        <v>32777</v>
       </c>
       <c r="G68" t="n">
-        <v>4.548499999999999</v>
+        <v>-1950627.850609276</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3149,7 +2999,11 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3160,32 +3014,36 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.58</v>
+        <v>4.34</v>
       </c>
       <c r="C69" t="n">
-        <v>4.58</v>
+        <v>4.34</v>
       </c>
       <c r="D69" t="n">
-        <v>4.58</v>
+        <v>4.34</v>
       </c>
       <c r="E69" t="n">
-        <v>4.58</v>
+        <v>4.34</v>
       </c>
       <c r="F69" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G69" t="n">
-        <v>4.552999999999999</v>
+        <v>-1950527.850609276</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3196,32 +3054,36 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.59</v>
+        <v>4.31</v>
       </c>
       <c r="C70" t="n">
-        <v>4.58</v>
+        <v>4.31</v>
       </c>
       <c r="D70" t="n">
-        <v>4.59</v>
+        <v>4.31</v>
       </c>
       <c r="E70" t="n">
-        <v>4.58</v>
+        <v>4.31</v>
       </c>
       <c r="F70" t="n">
-        <v>126818.4458</v>
+        <v>100</v>
       </c>
       <c r="G70" t="n">
-        <v>4.5585</v>
+        <v>-1950627.850609276</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3232,32 +3094,36 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.58</v>
+        <v>4.31</v>
       </c>
       <c r="C71" t="n">
-        <v>4.51</v>
+        <v>4.34</v>
       </c>
       <c r="D71" t="n">
-        <v>4.58</v>
+        <v>4.34</v>
       </c>
       <c r="E71" t="n">
-        <v>4.51</v>
+        <v>4.31</v>
       </c>
       <c r="F71" t="n">
-        <v>154393.7994</v>
+        <v>5237</v>
       </c>
       <c r="G71" t="n">
-        <v>4.563499999999999</v>
+        <v>-1945390.850609276</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3268,32 +3134,36 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="C72" t="n">
-        <v>4.5</v>
+        <v>4.35</v>
       </c>
       <c r="D72" t="n">
-        <v>4.5</v>
+        <v>4.35</v>
       </c>
       <c r="E72" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="F72" t="n">
-        <v>19543.2097</v>
+        <v>1046450.599</v>
       </c>
       <c r="G72" t="n">
-        <v>4.562499999999999</v>
+        <v>-898940.2516092762</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3304,22 +3174,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.49</v>
+        <v>4.35</v>
       </c>
       <c r="C73" t="n">
-        <v>4.49</v>
+        <v>4.36</v>
       </c>
       <c r="D73" t="n">
-        <v>4.68</v>
+        <v>4.36</v>
       </c>
       <c r="E73" t="n">
-        <v>4.49</v>
+        <v>4.35</v>
       </c>
       <c r="F73" t="n">
-        <v>21387.5213</v>
+        <v>7000</v>
       </c>
       <c r="G73" t="n">
-        <v>4.556999999999999</v>
+        <v>-891940.2516092762</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3329,7 +3199,11 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3340,22 +3214,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.66</v>
+        <v>4.36</v>
       </c>
       <c r="C74" t="n">
-        <v>4.54</v>
+        <v>4.39</v>
       </c>
       <c r="D74" t="n">
-        <v>4.66</v>
+        <v>4.4</v>
       </c>
       <c r="E74" t="n">
-        <v>4.54</v>
+        <v>4.36</v>
       </c>
       <c r="F74" t="n">
-        <v>181426.0164</v>
+        <v>231122.8106</v>
       </c>
       <c r="G74" t="n">
-        <v>4.559499999999999</v>
+        <v>-660817.4410092762</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3365,7 +3239,11 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3376,32 +3254,36 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.65</v>
+        <v>4.39</v>
       </c>
       <c r="C75" t="n">
-        <v>4.64</v>
+        <v>4.45</v>
       </c>
       <c r="D75" t="n">
-        <v>4.65</v>
+        <v>4.45</v>
       </c>
       <c r="E75" t="n">
-        <v>4.64</v>
+        <v>4.39</v>
       </c>
       <c r="F75" t="n">
-        <v>400</v>
+        <v>359460.7954</v>
       </c>
       <c r="G75" t="n">
-        <v>4.566999999999999</v>
+        <v>-301356.6456092762</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3412,32 +3294,36 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.64</v>
+        <v>4.45</v>
       </c>
       <c r="C76" t="n">
-        <v>4.65</v>
+        <v>4.47</v>
       </c>
       <c r="D76" t="n">
-        <v>4.65</v>
+        <v>4.47</v>
       </c>
       <c r="E76" t="n">
-        <v>4.64</v>
+        <v>4.45</v>
       </c>
       <c r="F76" t="n">
-        <v>35393.6021</v>
+        <v>60000</v>
       </c>
       <c r="G76" t="n">
-        <v>4.576499999999999</v>
+        <v>-241356.6456092762</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3448,32 +3334,36 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.63</v>
+        <v>4.47</v>
       </c>
       <c r="C77" t="n">
-        <v>4.63</v>
+        <v>4.49</v>
       </c>
       <c r="D77" t="n">
-        <v>4.63</v>
+        <v>4.49</v>
       </c>
       <c r="E77" t="n">
-        <v>4.63</v>
+        <v>4.47</v>
       </c>
       <c r="F77" t="n">
-        <v>10</v>
+        <v>109829.6164</v>
       </c>
       <c r="G77" t="n">
-        <v>4.583999999999999</v>
+        <v>-131527.0292092762</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3484,32 +3374,36 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.65</v>
+        <v>4.49</v>
       </c>
       <c r="C78" t="n">
-        <v>4.65</v>
+        <v>4.48</v>
       </c>
       <c r="D78" t="n">
-        <v>4.65</v>
+        <v>4.49</v>
       </c>
       <c r="E78" t="n">
-        <v>4.65</v>
+        <v>4.47</v>
       </c>
       <c r="F78" t="n">
-        <v>18.1818</v>
+        <v>37293.021</v>
       </c>
       <c r="G78" t="n">
-        <v>4.591499999999999</v>
+        <v>-168820.0502092762</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3520,32 +3414,36 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.64</v>
+        <v>4.48</v>
       </c>
       <c r="C79" t="n">
-        <v>4.64</v>
+        <v>4.48</v>
       </c>
       <c r="D79" t="n">
-        <v>4.64</v>
+        <v>4.48</v>
       </c>
       <c r="E79" t="n">
-        <v>4.64</v>
+        <v>4.48</v>
       </c>
       <c r="F79" t="n">
-        <v>767.2198</v>
+        <v>2033.3502</v>
       </c>
       <c r="G79" t="n">
-        <v>4.595999999999999</v>
+        <v>-168820.0502092762</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3556,32 +3454,36 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.63</v>
+        <v>4.48</v>
       </c>
       <c r="C80" t="n">
-        <v>4.63</v>
+        <v>4.5</v>
       </c>
       <c r="D80" t="n">
-        <v>4.63</v>
+        <v>4.5</v>
       </c>
       <c r="E80" t="n">
-        <v>4.63</v>
+        <v>4.48</v>
       </c>
       <c r="F80" t="n">
-        <v>190</v>
+        <v>735310.9674</v>
       </c>
       <c r="G80" t="n">
-        <v>4.599499999999999</v>
+        <v>566490.9171907238</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3592,32 +3494,36 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.62</v>
+        <v>4.52</v>
       </c>
       <c r="C81" t="n">
-        <v>4.61</v>
+        <v>4.6</v>
       </c>
       <c r="D81" t="n">
-        <v>4.62</v>
+        <v>4.6</v>
       </c>
       <c r="E81" t="n">
-        <v>4.61</v>
+        <v>4.5</v>
       </c>
       <c r="F81" t="n">
-        <v>26966.6125</v>
+        <v>103444.7236</v>
       </c>
       <c r="G81" t="n">
-        <v>4.606999999999999</v>
+        <v>669935.6407907238</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3631,29 +3537,33 @@
         <v>4.6</v>
       </c>
       <c r="C82" t="n">
-        <v>4.4</v>
+        <v>4.54</v>
       </c>
       <c r="D82" t="n">
-        <v>4.6</v>
+        <v>4.61</v>
       </c>
       <c r="E82" t="n">
-        <v>4.4</v>
+        <v>4.51</v>
       </c>
       <c r="F82" t="n">
-        <v>670000.2463999999</v>
+        <v>147240.3646</v>
       </c>
       <c r="G82" t="n">
-        <v>4.604999999999999</v>
+        <v>522695.2761907239</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3664,32 +3574,36 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.59</v>
+        <v>4.61</v>
       </c>
       <c r="C83" t="n">
-        <v>4.59</v>
+        <v>4.61</v>
       </c>
       <c r="D83" t="n">
-        <v>4.59</v>
+        <v>4.61</v>
       </c>
       <c r="E83" t="n">
-        <v>4.59</v>
+        <v>4.52</v>
       </c>
       <c r="F83" t="n">
-        <v>211.5468</v>
+        <v>416949.5081</v>
       </c>
       <c r="G83" t="n">
-        <v>4.603</v>
+        <v>939644.7842907239</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3700,32 +3614,36 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.58</v>
+        <v>4.5</v>
       </c>
       <c r="C84" t="n">
-        <v>4.58</v>
+        <v>4.59</v>
       </c>
       <c r="D84" t="n">
-        <v>4.58</v>
+        <v>4.59</v>
       </c>
       <c r="E84" t="n">
-        <v>4.58</v>
+        <v>4.47</v>
       </c>
       <c r="F84" t="n">
-        <v>40197.9257</v>
+        <v>960478.1181</v>
       </c>
       <c r="G84" t="n">
-        <v>4.595999999999999</v>
+        <v>-20833.33380927611</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3736,32 +3654,36 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.58</v>
+        <v>4.45</v>
       </c>
       <c r="C85" t="n">
-        <v>4.58</v>
+        <v>4.44</v>
       </c>
       <c r="D85" t="n">
         <v>4.58</v>
       </c>
       <c r="E85" t="n">
-        <v>4.58</v>
+        <v>4.44</v>
       </c>
       <c r="F85" t="n">
-        <v>1936.4628</v>
+        <v>35</v>
       </c>
       <c r="G85" t="n">
-        <v>4.596499999999999</v>
+        <v>-20868.33380927611</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3772,22 +3694,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.58</v>
+        <v>4.48</v>
       </c>
       <c r="C86" t="n">
-        <v>4.58</v>
+        <v>4.44</v>
       </c>
       <c r="D86" t="n">
         <v>4.58</v>
       </c>
       <c r="E86" t="n">
-        <v>4.58</v>
+        <v>4.44</v>
       </c>
       <c r="F86" t="n">
-        <v>18.1818</v>
+        <v>22344.4285</v>
       </c>
       <c r="G86" t="n">
-        <v>4.597499999999998</v>
+        <v>-20868.33380927611</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3797,7 +3719,11 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3808,22 +3734,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.58</v>
+        <v>4.5</v>
       </c>
       <c r="C87" t="n">
-        <v>4.59</v>
+        <v>4.5</v>
       </c>
       <c r="D87" t="n">
-        <v>4.59</v>
+        <v>4.5</v>
       </c>
       <c r="E87" t="n">
-        <v>4.58</v>
+        <v>4.45</v>
       </c>
       <c r="F87" t="n">
-        <v>4848</v>
+        <v>77576.94160000001</v>
       </c>
       <c r="G87" t="n">
-        <v>4.597499999999998</v>
+        <v>56708.60779072389</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3833,7 +3759,11 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3844,22 +3774,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.59</v>
+        <v>4.55</v>
       </c>
       <c r="C88" t="n">
-        <v>4.59</v>
+        <v>4.56</v>
       </c>
       <c r="D88" t="n">
-        <v>4.59</v>
+        <v>4.56</v>
       </c>
       <c r="E88" t="n">
-        <v>4.59</v>
+        <v>4.55</v>
       </c>
       <c r="F88" t="n">
-        <v>69730.9368</v>
+        <v>14947.0225</v>
       </c>
       <c r="G88" t="n">
-        <v>4.597999999999999</v>
+        <v>71655.6302907239</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3869,7 +3799,11 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3880,22 +3814,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.59</v>
+        <v>4.56</v>
       </c>
       <c r="C89" t="n">
-        <v>4.6</v>
+        <v>4.62</v>
       </c>
       <c r="D89" t="n">
-        <v>4.6</v>
+        <v>4.62</v>
       </c>
       <c r="E89" t="n">
-        <v>4.59</v>
+        <v>4.56</v>
       </c>
       <c r="F89" t="n">
-        <v>47723.4267</v>
+        <v>167288.4828</v>
       </c>
       <c r="G89" t="n">
-        <v>4.5985</v>
+        <v>238944.1130907239</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3905,7 +3839,11 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3916,22 +3854,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.59</v>
+        <v>4.47</v>
       </c>
       <c r="C90" t="n">
-        <v>4.6</v>
+        <v>4.64</v>
       </c>
       <c r="D90" t="n">
-        <v>4.6</v>
+        <v>4.64</v>
       </c>
       <c r="E90" t="n">
-        <v>4.59</v>
+        <v>4.47</v>
       </c>
       <c r="F90" t="n">
-        <v>4610.1818</v>
+        <v>215578.5800678959</v>
       </c>
       <c r="G90" t="n">
-        <v>4.5985</v>
+        <v>454522.6931586198</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3941,7 +3879,11 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3952,22 +3894,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.6</v>
+        <v>4.64</v>
       </c>
       <c r="C91" t="n">
-        <v>4.6</v>
+        <v>4.63</v>
       </c>
       <c r="D91" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="E91" t="n">
-        <v>4.6</v>
+        <v>4.63</v>
       </c>
       <c r="F91" t="n">
-        <v>19963.6364</v>
+        <v>538557.9690957447</v>
       </c>
       <c r="G91" t="n">
-        <v>4.599499999999999</v>
+        <v>-84035.27593712485</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3977,7 +3919,11 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3988,22 +3934,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.61</v>
+        <v>4.63</v>
       </c>
       <c r="C92" t="n">
-        <v>4.61</v>
+        <v>4.56</v>
       </c>
       <c r="D92" t="n">
-        <v>4.61</v>
+        <v>4.72</v>
       </c>
       <c r="E92" t="n">
-        <v>4.61</v>
+        <v>4.56</v>
       </c>
       <c r="F92" t="n">
-        <v>5004.013</v>
+        <v>234350.9521321041</v>
       </c>
       <c r="G92" t="n">
-        <v>4.604999999999999</v>
+        <v>-318386.2280692289</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4013,7 +3959,11 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4024,32 +3974,36 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.61</v>
+        <v>4.72</v>
       </c>
       <c r="C93" t="n">
-        <v>4.63</v>
+        <v>4.72</v>
       </c>
       <c r="D93" t="n">
-        <v>4.63</v>
+        <v>4.72</v>
       </c>
       <c r="E93" t="n">
-        <v>4.61</v>
+        <v>4.72</v>
       </c>
       <c r="F93" t="n">
-        <v>168839.8183</v>
+        <v>15</v>
       </c>
       <c r="G93" t="n">
-        <v>4.610999999999999</v>
+        <v>-318371.2280692289</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4060,22 +4014,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.62</v>
+        <v>4.57</v>
       </c>
       <c r="C94" t="n">
-        <v>4.62</v>
+        <v>4.57</v>
       </c>
       <c r="D94" t="n">
-        <v>4.62</v>
+        <v>4.57</v>
       </c>
       <c r="E94" t="n">
-        <v>4.62</v>
+        <v>4.57</v>
       </c>
       <c r="F94" t="n">
-        <v>86186.75199999999</v>
+        <v>10</v>
       </c>
       <c r="G94" t="n">
-        <v>4.609</v>
+        <v>-318381.2280692289</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4085,10 +4039,12 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr"/>
       <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
@@ -4096,28 +4052,28 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.63</v>
+        <v>4.56</v>
       </c>
       <c r="C95" t="n">
-        <v>4.63</v>
+        <v>4.56</v>
       </c>
       <c r="D95" t="n">
-        <v>4.63</v>
+        <v>4.56</v>
       </c>
       <c r="E95" t="n">
-        <v>4.63</v>
+        <v>4.56</v>
       </c>
       <c r="F95" t="n">
-        <v>199733.4772</v>
+        <v>10</v>
       </c>
       <c r="G95" t="n">
-        <v>4.607999999999999</v>
+        <v>-318391.2280692289</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -4132,28 +4088,28 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.63</v>
+        <v>4.58</v>
       </c>
       <c r="C96" t="n">
-        <v>4.63</v>
+        <v>4.58</v>
       </c>
       <c r="D96" t="n">
-        <v>4.63</v>
+        <v>4.58</v>
       </c>
       <c r="E96" t="n">
-        <v>4.63</v>
+        <v>4.58</v>
       </c>
       <c r="F96" t="n">
-        <v>21977.5772</v>
+        <v>16344.5498</v>
       </c>
       <c r="G96" t="n">
-        <v>4.607499999999999</v>
+        <v>-302046.678269229</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -4168,28 +4124,28 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.64</v>
+        <v>4.58</v>
       </c>
       <c r="C97" t="n">
-        <v>4.63</v>
+        <v>4.58</v>
       </c>
       <c r="D97" t="n">
-        <v>4.64</v>
+        <v>4.58</v>
       </c>
       <c r="E97" t="n">
-        <v>4.63</v>
+        <v>4.57</v>
       </c>
       <c r="F97" t="n">
-        <v>82101.2316</v>
+        <v>83899.8912</v>
       </c>
       <c r="G97" t="n">
-        <v>4.607999999999999</v>
+        <v>-302046.678269229</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -4204,28 +4160,28 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.64</v>
+        <v>4.58</v>
       </c>
       <c r="C98" t="n">
-        <v>4.63</v>
+        <v>4.58</v>
       </c>
       <c r="D98" t="n">
-        <v>4.64</v>
+        <v>4.58</v>
       </c>
       <c r="E98" t="n">
-        <v>4.63</v>
+        <v>4.58</v>
       </c>
       <c r="F98" t="n">
-        <v>159216.8858</v>
+        <v>10</v>
       </c>
       <c r="G98" t="n">
-        <v>4.607499999999999</v>
+        <v>-302046.678269229</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -4240,28 +4196,28 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.64</v>
+        <v>4.59</v>
       </c>
       <c r="C99" t="n">
-        <v>4.64</v>
+        <v>4.58</v>
       </c>
       <c r="D99" t="n">
-        <v>4.64</v>
+        <v>4.59</v>
       </c>
       <c r="E99" t="n">
-        <v>4.64</v>
+        <v>4.58</v>
       </c>
       <c r="F99" t="n">
-        <v>14.9784</v>
+        <v>126818.4458</v>
       </c>
       <c r="G99" t="n">
-        <v>4.607499999999999</v>
+        <v>-302046.678269229</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -4276,28 +4232,28 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.64</v>
+        <v>4.58</v>
       </c>
       <c r="C100" t="n">
-        <v>4.64</v>
+        <v>4.51</v>
       </c>
       <c r="D100" t="n">
-        <v>4.64</v>
+        <v>4.58</v>
       </c>
       <c r="E100" t="n">
-        <v>4.64</v>
+        <v>4.51</v>
       </c>
       <c r="F100" t="n">
-        <v>264</v>
+        <v>154393.7994</v>
       </c>
       <c r="G100" t="n">
-        <v>4.607999999999999</v>
+        <v>-456440.4776692289</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -4312,22 +4268,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.64</v>
+        <v>4.5</v>
       </c>
       <c r="C101" t="n">
-        <v>4.64</v>
+        <v>4.5</v>
       </c>
       <c r="D101" t="n">
-        <v>4.64</v>
+        <v>4.5</v>
       </c>
       <c r="E101" t="n">
-        <v>4.63</v>
+        <v>4.5</v>
       </c>
       <c r="F101" t="n">
-        <v>3572.418</v>
+        <v>19543.2097</v>
       </c>
       <c r="G101" t="n">
-        <v>4.608999999999999</v>
+        <v>-475983.6873692289</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4348,28 +4304,28 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.64</v>
+        <v>4.49</v>
       </c>
       <c r="C102" t="n">
-        <v>4.64</v>
+        <v>4.49</v>
       </c>
       <c r="D102" t="n">
-        <v>4.64</v>
+        <v>4.68</v>
       </c>
       <c r="E102" t="n">
-        <v>4.64</v>
+        <v>4.49</v>
       </c>
       <c r="F102" t="n">
-        <v>297</v>
+        <v>21387.5213</v>
       </c>
       <c r="G102" t="n">
-        <v>4.610999999999999</v>
+        <v>-497371.2086692289</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4384,28 +4340,28 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.64</v>
+        <v>4.66</v>
       </c>
       <c r="C103" t="n">
-        <v>4.64</v>
+        <v>4.54</v>
       </c>
       <c r="D103" t="n">
-        <v>4.64</v>
+        <v>4.66</v>
       </c>
       <c r="E103" t="n">
-        <v>4.64</v>
+        <v>4.54</v>
       </c>
       <c r="F103" t="n">
-        <v>165</v>
+        <v>181426.0164</v>
       </c>
       <c r="G103" t="n">
-        <v>4.613499999999999</v>
+        <v>-315945.192269229</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -4420,22 +4376,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.64</v>
+        <v>4.65</v>
       </c>
       <c r="C104" t="n">
         <v>4.64</v>
       </c>
       <c r="D104" t="n">
-        <v>4.64</v>
+        <v>4.65</v>
       </c>
       <c r="E104" t="n">
         <v>4.64</v>
       </c>
       <c r="F104" t="n">
-        <v>18.1818</v>
+        <v>400</v>
       </c>
       <c r="G104" t="n">
-        <v>4.616499999999999</v>
+        <v>-315545.192269229</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4459,19 +4415,19 @@
         <v>4.64</v>
       </c>
       <c r="C105" t="n">
-        <v>4.64</v>
+        <v>4.65</v>
       </c>
       <c r="D105" t="n">
-        <v>4.64</v>
+        <v>4.65</v>
       </c>
       <c r="E105" t="n">
         <v>4.64</v>
       </c>
       <c r="F105" t="n">
-        <v>14.8491</v>
+        <v>35393.6021</v>
       </c>
       <c r="G105" t="n">
-        <v>4.619499999999999</v>
+        <v>-280151.590169229</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4492,22 +4448,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.64</v>
+        <v>4.63</v>
       </c>
       <c r="C106" t="n">
-        <v>4.64</v>
+        <v>4.63</v>
       </c>
       <c r="D106" t="n">
-        <v>4.64</v>
+        <v>4.63</v>
       </c>
       <c r="E106" t="n">
-        <v>4.64</v>
+        <v>4.63</v>
       </c>
       <c r="F106" t="n">
-        <v>1864.3857</v>
+        <v>10</v>
       </c>
       <c r="G106" t="n">
-        <v>4.6225</v>
+        <v>-280161.590169229</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4528,22 +4484,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.64</v>
+        <v>4.65</v>
       </c>
       <c r="C107" t="n">
-        <v>4.64</v>
+        <v>4.65</v>
       </c>
       <c r="D107" t="n">
-        <v>4.64</v>
+        <v>4.65</v>
       </c>
       <c r="E107" t="n">
-        <v>4.64</v>
+        <v>4.65</v>
       </c>
       <c r="F107" t="n">
-        <v>3232.7586</v>
+        <v>18.1818</v>
       </c>
       <c r="G107" t="n">
-        <v>4.6255</v>
+        <v>-280143.4083692289</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4564,22 +4520,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.63</v>
+        <v>4.64</v>
       </c>
       <c r="C108" t="n">
-        <v>4.63</v>
+        <v>4.64</v>
       </c>
       <c r="D108" t="n">
-        <v>4.63</v>
+        <v>4.64</v>
       </c>
       <c r="E108" t="n">
-        <v>4.63</v>
+        <v>4.64</v>
       </c>
       <c r="F108" t="n">
-        <v>1745.4302</v>
+        <v>767.2198</v>
       </c>
       <c r="G108" t="n">
-        <v>4.6275</v>
+        <v>-280910.628169229</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4600,22 +4556,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.64</v>
+        <v>4.63</v>
       </c>
       <c r="C109" t="n">
-        <v>4.64</v>
+        <v>4.63</v>
       </c>
       <c r="D109" t="n">
-        <v>4.64</v>
+        <v>4.63</v>
       </c>
       <c r="E109" t="n">
-        <v>4.64</v>
+        <v>4.63</v>
       </c>
       <c r="F109" t="n">
-        <v>10775.862</v>
+        <v>190</v>
       </c>
       <c r="G109" t="n">
-        <v>4.629999999999999</v>
+        <v>-281100.628169229</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4636,22 +4592,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.63</v>
+        <v>4.62</v>
       </c>
       <c r="C110" t="n">
-        <v>4.59</v>
+        <v>4.61</v>
       </c>
       <c r="D110" t="n">
-        <v>4.63</v>
+        <v>4.62</v>
       </c>
       <c r="E110" t="n">
-        <v>4.59</v>
+        <v>4.61</v>
       </c>
       <c r="F110" t="n">
-        <v>50000</v>
+        <v>26966.6125</v>
       </c>
       <c r="G110" t="n">
-        <v>4.631999999999999</v>
+        <v>-308067.240669229</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4672,22 +4628,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.59</v>
+        <v>4.6</v>
       </c>
       <c r="C111" t="n">
-        <v>4.63</v>
+        <v>4.4</v>
       </c>
       <c r="D111" t="n">
-        <v>4.63</v>
+        <v>4.6</v>
       </c>
       <c r="E111" t="n">
-        <v>4.59</v>
+        <v>4.4</v>
       </c>
       <c r="F111" t="n">
-        <v>50799.136</v>
+        <v>670000.2463999999</v>
       </c>
       <c r="G111" t="n">
-        <v>4.631499999999999</v>
+        <v>-978067.4870692289</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4711,19 +4667,19 @@
         <v>4.59</v>
       </c>
       <c r="C112" t="n">
-        <v>4.6</v>
+        <v>4.59</v>
       </c>
       <c r="D112" t="n">
-        <v>4.6</v>
+        <v>4.59</v>
       </c>
       <c r="E112" t="n">
         <v>4.59</v>
       </c>
       <c r="F112" t="n">
-        <v>1522.0909</v>
+        <v>211.5468</v>
       </c>
       <c r="G112" t="n">
-        <v>4.6305</v>
+        <v>-977855.9402692289</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4744,28 +4700,28 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.63</v>
+        <v>4.58</v>
       </c>
       <c r="C113" t="n">
-        <v>4.64</v>
+        <v>4.58</v>
       </c>
       <c r="D113" t="n">
-        <v>4.64</v>
+        <v>4.58</v>
       </c>
       <c r="E113" t="n">
-        <v>4.63</v>
+        <v>4.58</v>
       </c>
       <c r="F113" t="n">
-        <v>189704.2334</v>
+        <v>40197.9257</v>
       </c>
       <c r="G113" t="n">
-        <v>4.631499999999999</v>
+        <v>-1018053.865969229</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -4780,22 +4736,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.65</v>
+        <v>4.58</v>
       </c>
       <c r="C114" t="n">
-        <v>4.65</v>
+        <v>4.58</v>
       </c>
       <c r="D114" t="n">
-        <v>4.65</v>
+        <v>4.58</v>
       </c>
       <c r="E114" t="n">
-        <v>4.65</v>
+        <v>4.58</v>
       </c>
       <c r="F114" t="n">
-        <v>18.1818</v>
+        <v>1936.4628</v>
       </c>
       <c r="G114" t="n">
-        <v>4.632999999999999</v>
+        <v>-1018053.865969229</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4816,28 +4772,28 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.64</v>
+        <v>4.58</v>
       </c>
       <c r="C115" t="n">
-        <v>4.65</v>
+        <v>4.58</v>
       </c>
       <c r="D115" t="n">
-        <v>4.65</v>
+        <v>4.58</v>
       </c>
       <c r="E115" t="n">
-        <v>4.64</v>
+        <v>4.58</v>
       </c>
       <c r="F115" t="n">
-        <v>60018.1818</v>
+        <v>18.1818</v>
       </c>
       <c r="G115" t="n">
-        <v>4.6335</v>
+        <v>-1018053.865969229</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -4852,28 +4808,28 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.64</v>
+        <v>4.58</v>
       </c>
       <c r="C116" t="n">
-        <v>4.64</v>
+        <v>4.59</v>
       </c>
       <c r="D116" t="n">
-        <v>4.64</v>
+        <v>4.59</v>
       </c>
       <c r="E116" t="n">
-        <v>4.64</v>
+        <v>4.58</v>
       </c>
       <c r="F116" t="n">
-        <v>3058.2666</v>
+        <v>4848</v>
       </c>
       <c r="G116" t="n">
-        <v>4.633999999999999</v>
+        <v>-1013205.865969229</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -4888,28 +4844,28 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.62</v>
+        <v>4.59</v>
       </c>
       <c r="C117" t="n">
-        <v>4.61</v>
+        <v>4.59</v>
       </c>
       <c r="D117" t="n">
-        <v>4.62</v>
+        <v>4.59</v>
       </c>
       <c r="E117" t="n">
-        <v>4.61</v>
+        <v>4.59</v>
       </c>
       <c r="F117" t="n">
-        <v>70.1713</v>
+        <v>69730.9368</v>
       </c>
       <c r="G117" t="n">
-        <v>4.633</v>
+        <v>-1013205.865969229</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -4924,7 +4880,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.6</v>
+        <v>4.59</v>
       </c>
       <c r="C118" t="n">
         <v>4.6</v>
@@ -4933,19 +4889,19 @@
         <v>4.6</v>
       </c>
       <c r="E118" t="n">
-        <v>4.6</v>
+        <v>4.59</v>
       </c>
       <c r="F118" t="n">
-        <v>77.9091</v>
+        <v>47723.4267</v>
       </c>
       <c r="G118" t="n">
-        <v>4.630999999999999</v>
+        <v>-965482.439269229</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -4960,28 +4916,28 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.64</v>
+        <v>4.59</v>
       </c>
       <c r="C119" t="n">
-        <v>4.64</v>
+        <v>4.6</v>
       </c>
       <c r="D119" t="n">
-        <v>4.64</v>
+        <v>4.6</v>
       </c>
       <c r="E119" t="n">
-        <v>4.64</v>
+        <v>4.59</v>
       </c>
       <c r="F119" t="n">
-        <v>18.1818</v>
+        <v>4610.1818</v>
       </c>
       <c r="G119" t="n">
-        <v>4.630999999999999</v>
+        <v>-965482.439269229</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
@@ -4996,28 +4952,28 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.63</v>
+        <v>4.6</v>
       </c>
       <c r="C120" t="n">
         <v>4.6</v>
       </c>
       <c r="D120" t="n">
-        <v>4.64</v>
+        <v>4.6</v>
       </c>
       <c r="E120" t="n">
         <v>4.6</v>
       </c>
       <c r="F120" t="n">
-        <v>1727.1794</v>
+        <v>19963.6364</v>
       </c>
       <c r="G120" t="n">
-        <v>4.6305</v>
+        <v>-965482.439269229</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -5032,28 +4988,28 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.58</v>
+        <v>4.61</v>
       </c>
       <c r="C121" t="n">
-        <v>4.55</v>
+        <v>4.61</v>
       </c>
       <c r="D121" t="n">
-        <v>4.58</v>
+        <v>4.61</v>
       </c>
       <c r="E121" t="n">
-        <v>4.55</v>
+        <v>4.61</v>
       </c>
       <c r="F121" t="n">
-        <v>152236.2576</v>
+        <v>5004.013</v>
       </c>
       <c r="G121" t="n">
-        <v>4.6275</v>
+        <v>-960478.4262692289</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
@@ -5068,28 +5024,28 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.55</v>
+        <v>4.61</v>
       </c>
       <c r="C122" t="n">
-        <v>4.53</v>
+        <v>4.63</v>
       </c>
       <c r="D122" t="n">
-        <v>4.55</v>
+        <v>4.63</v>
       </c>
       <c r="E122" t="n">
-        <v>4.53</v>
+        <v>4.61</v>
       </c>
       <c r="F122" t="n">
-        <v>24580.0726</v>
+        <v>168839.8183</v>
       </c>
       <c r="G122" t="n">
-        <v>4.622999999999999</v>
+        <v>-791638.6079692289</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
@@ -5104,28 +5060,28 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>4.52</v>
+        <v>4.62</v>
       </c>
       <c r="C123" t="n">
-        <v>4.52</v>
+        <v>4.62</v>
       </c>
       <c r="D123" t="n">
-        <v>4.52</v>
+        <v>4.62</v>
       </c>
       <c r="E123" t="n">
-        <v>4.52</v>
+        <v>4.62</v>
       </c>
       <c r="F123" t="n">
-        <v>39846</v>
+        <v>86186.75199999999</v>
       </c>
       <c r="G123" t="n">
-        <v>4.616999999999999</v>
+        <v>-877825.3599692289</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
@@ -5140,22 +5096,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4.51</v>
+        <v>4.63</v>
       </c>
       <c r="C124" t="n">
-        <v>4.51</v>
+        <v>4.63</v>
       </c>
       <c r="D124" t="n">
-        <v>4.51</v>
+        <v>4.63</v>
       </c>
       <c r="E124" t="n">
-        <v>4.51</v>
+        <v>4.63</v>
       </c>
       <c r="F124" t="n">
-        <v>11930</v>
+        <v>199733.4772</v>
       </c>
       <c r="G124" t="n">
-        <v>4.610499999999999</v>
+        <v>-678091.8827692289</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5176,22 +5132,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.5</v>
+        <v>4.63</v>
       </c>
       <c r="C125" t="n">
-        <v>4.43</v>
+        <v>4.63</v>
       </c>
       <c r="D125" t="n">
-        <v>4.5</v>
+        <v>4.63</v>
       </c>
       <c r="E125" t="n">
-        <v>4.43</v>
+        <v>4.63</v>
       </c>
       <c r="F125" t="n">
-        <v>257207.9297</v>
+        <v>21977.5772</v>
       </c>
       <c r="G125" t="n">
-        <v>4.603499999999999</v>
+        <v>-678091.8827692289</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5212,22 +5168,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4.41</v>
+        <v>4.64</v>
       </c>
       <c r="C126" t="n">
-        <v>4.41</v>
+        <v>4.63</v>
       </c>
       <c r="D126" t="n">
-        <v>4.41</v>
+        <v>4.64</v>
       </c>
       <c r="E126" t="n">
-        <v>4.41</v>
+        <v>4.63</v>
       </c>
       <c r="F126" t="n">
-        <v>42162.6961</v>
+        <v>82101.2316</v>
       </c>
       <c r="G126" t="n">
-        <v>4.591999999999999</v>
+        <v>-678091.8827692289</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5248,22 +5204,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4.4</v>
+        <v>4.64</v>
       </c>
       <c r="C127" t="n">
-        <v>4.57</v>
+        <v>4.63</v>
       </c>
       <c r="D127" t="n">
-        <v>4.57</v>
+        <v>4.64</v>
       </c>
       <c r="E127" t="n">
-        <v>4.4</v>
+        <v>4.63</v>
       </c>
       <c r="F127" t="n">
-        <v>84892.78126148797</v>
+        <v>159216.8858</v>
       </c>
       <c r="G127" t="n">
-        <v>4.579999999999999</v>
+        <v>-678091.8827692289</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5279,6 +5235,1062 @@
       </c>
       <c r="N127" t="inlineStr"/>
     </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="C128" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="D128" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="E128" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="F128" t="n">
+        <v>14.9784</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-678076.9043692289</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="C129" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="D129" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="E129" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="F129" t="n">
+        <v>264</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-678076.9043692289</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="C130" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="D130" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="E130" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="F130" t="n">
+        <v>3572.418</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-678076.9043692289</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="C131" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="D131" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="E131" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="F131" t="n">
+        <v>297</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-678076.9043692289</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="C132" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="D132" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="E132" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="F132" t="n">
+        <v>165</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-678076.9043692289</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="C133" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="D133" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="E133" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="F133" t="n">
+        <v>18.1818</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-678076.9043692289</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="C134" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="D134" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="E134" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="F134" t="n">
+        <v>14.8491</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-678076.9043692289</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="C135" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="D135" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="E135" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1864.3857</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-678076.9043692289</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="C136" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="D136" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="E136" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="F136" t="n">
+        <v>3232.7586</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-678076.9043692289</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="C137" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="D137" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="E137" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1745.4302</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-679822.3345692288</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="C138" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="D138" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="E138" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="F138" t="n">
+        <v>10775.862</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-669046.4725692288</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="C139" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="D139" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="E139" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="F139" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-719046.4725692288</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="C140" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="D140" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="E140" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="F140" t="n">
+        <v>50799.136</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-668247.3365692289</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="C141" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D141" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="E141" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1522.0909</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-669769.4274692289</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="C142" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="D142" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="E142" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="F142" t="n">
+        <v>189704.2334</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-480065.1940692288</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="C143" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="D143" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="E143" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="F143" t="n">
+        <v>18.1818</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-480047.0122692288</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="C144" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="D144" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="E144" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="F144" t="n">
+        <v>60018.1818</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-480047.0122692288</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="C145" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="D145" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="E145" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="F145" t="n">
+        <v>3058.2666</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-483105.2788692288</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="C146" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="D146" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="E146" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="F146" t="n">
+        <v>70.1713</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-483175.4501692288</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="C147" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D147" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="E147" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="F147" t="n">
+        <v>77.9091</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-483253.3592692288</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="C148" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="D148" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="E148" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="F148" t="n">
+        <v>18.1818</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-483235.1774692287</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="C149" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D149" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="E149" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="F149" t="n">
+        <v>1727.1794</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-484962.3568692288</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="C150" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="D150" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="E150" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="F150" t="n">
+        <v>152236.2576</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-637198.6144692288</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="C151" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="D151" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="E151" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="F151" t="n">
+        <v>24580.0726</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-661778.6870692287</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="C152" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="D152" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="E152" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="F152" t="n">
+        <v>39846</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-701624.6870692287</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="C153" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="D153" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="E153" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="F153" t="n">
+        <v>11930</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-713554.6870692287</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C154" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="D154" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E154" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="F154" t="n">
+        <v>257207.9297</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-970762.6167692287</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="C155" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="D155" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="E155" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="F155" t="n">
+        <v>42162.6961</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-1012925.312869229</v>
+      </c>
+      <c r="H155" t="n">
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="K155" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="C156" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="D156" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="E156" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="F156" t="n">
+        <v>84892.78126148797</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-928032.5316077407</v>
+      </c>
+      <c r="H156" t="n">
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="K156" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-28 BackTest BZNT.xlsx
+++ b/BackTest/2019-10-28 BackTest BZNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N156"/>
+  <dimension ref="A1:M156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,19 @@
         <v>536203.2984000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
+        <v>4.3</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4.3</v>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +521,23 @@
         <v>581993.8875000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+        <v>4.29</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +562,23 @@
         <v>660417.2516000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+        <v>4.3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +603,19 @@
         <v>699281.4102</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
+        <v>4.33</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.33</v>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +642,19 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +681,19 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +718,15 @@
         <v>740663.7506</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +751,15 @@
         <v>740891.5410328018</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +786,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +817,15 @@
         <v>629358.6948328018</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +850,15 @@
         <v>683463.0943328019</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +883,15 @@
         <v>694748.7107328019</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +916,21 @@
         <v>786416.236532802</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>4.38</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +955,19 @@
         <v>900166.8858907241</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +992,19 @@
         <v>890101.0628907242</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +1031,17 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1068,17 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1103,19 @@
         <v>954101.0628907242</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,18 +1140,19 @@
         <v>924101.0628907242</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1179,17 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1216,17 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1253,17 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1284,22 +1288,19 @@
         <v>891427.7820907242</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="K25" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1324,26 +1325,21 @@
         <v>891437.7820907242</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
         <v>4.27</v>
       </c>
-      <c r="K26" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1370,22 +1366,17 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1412,16 +1403,17 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1448,16 +1440,17 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1484,16 +1477,17 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1520,16 +1514,17 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1556,16 +1551,17 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1592,16 +1588,17 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1628,16 +1625,17 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1664,16 +1662,17 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1700,16 +1699,17 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1734,24 +1734,19 @@
         <v>-1298610.688509276</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1778,20 +1773,17 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1818,20 +1810,17 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1858,20 +1847,17 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1898,20 +1884,17 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1938,20 +1921,17 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1976,24 +1956,19 @@
         <v>-1270180.688509276</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2020,20 +1995,17 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2058,24 +2030,21 @@
         <v>-1392986.552509276</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
         <v>4.34</v>
       </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2102,20 +2071,17 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2140,24 +2106,21 @@
         <v>-1494320.738509276</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
         <v>4.37</v>
       </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2182,24 +2145,21 @@
         <v>-1494320.738509276</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
         <v>4.3</v>
       </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2224,24 +2184,19 @@
         <v>-1494302.556709276</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2266,24 +2221,19 @@
         <v>-1494284.374909276</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2308,24 +2258,19 @@
         <v>-1609311.534609276</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2352,20 +2297,17 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2392,20 +2334,17 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2430,24 +2369,19 @@
         <v>-1727050.670809276</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2472,22 +2406,21 @@
         <v>-1727040.670809276</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2512,22 +2445,21 @@
         <v>-1913808.463809276</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>4.36</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2554,20 +2486,17 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2594,20 +2523,17 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2634,20 +2560,17 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2674,20 +2597,17 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2714,20 +2634,17 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2754,20 +2671,17 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2794,20 +2708,17 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2834,20 +2745,17 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2874,20 +2782,17 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2914,20 +2819,17 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2954,20 +2856,17 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2994,20 +2893,17 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3032,22 +2928,21 @@
         <v>-1950527.850609276</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3072,22 +2967,21 @@
         <v>-1950627.850609276</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>4.34</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3112,22 +3006,21 @@
         <v>-1945390.850609276</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>4.31</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3152,22 +3045,21 @@
         <v>-898940.2516092762</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>4.34</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3194,20 +3086,17 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3234,20 +3123,17 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3274,20 +3160,17 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3314,20 +3197,17 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3354,20 +3234,17 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3394,20 +3271,17 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3434,20 +3308,17 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3474,20 +3345,17 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3514,20 +3382,17 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3554,20 +3419,17 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3594,20 +3456,17 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3634,20 +3493,17 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3674,20 +3530,17 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3714,20 +3567,17 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3754,20 +3604,17 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3794,20 +3641,17 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3834,20 +3678,17 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3874,20 +3715,17 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3914,20 +3752,17 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3954,20 +3789,17 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3992,22 +3824,17 @@
         <v>-318371.2280692289</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4034,18 +3861,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="L94" t="n">
+        <v>1</v>
       </c>
       <c r="M94" t="inlineStr"/>
-      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4070,18 +3892,15 @@
         <v>-318391.2280692289</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4106,18 +3925,15 @@
         <v>-302046.678269229</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4142,18 +3958,15 @@
         <v>-302046.678269229</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4178,18 +3991,15 @@
         <v>-302046.678269229</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4216,16 +4026,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4250,18 +4057,15 @@
         <v>-456440.4776692289</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4288,16 +4092,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>1</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4324,16 +4125,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4360,16 +4158,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4396,16 +4191,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>1</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4430,18 +4222,15 @@
         <v>-280151.590169229</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4468,16 +4257,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>1</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4504,16 +4290,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>1</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4540,16 +4323,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>1</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4576,16 +4356,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>1</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4612,16 +4389,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>1</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4648,16 +4422,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>1</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4684,16 +4455,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4720,16 +4488,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4756,16 +4521,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>1</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4792,16 +4554,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4828,16 +4587,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4864,16 +4620,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4900,16 +4653,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4936,16 +4686,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4972,16 +4719,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5008,16 +4752,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5044,16 +4785,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5080,16 +4818,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5116,16 +4851,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5152,16 +4884,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5188,16 +4917,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5222,18 +4948,15 @@
         <v>-678091.8827692289</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5258,18 +4981,15 @@
         <v>-678076.9043692289</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5296,16 +5016,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5330,18 +5047,15 @@
         <v>-678076.9043692289</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5368,16 +5082,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5404,16 +5115,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5440,16 +5148,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5474,18 +5179,15 @@
         <v>-678076.9043692289</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5512,16 +5214,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5548,16 +5247,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5584,16 +5280,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5618,18 +5311,15 @@
         <v>-669046.4725692288</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5654,18 +5344,15 @@
         <v>-719046.4725692288</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5690,18 +5377,15 @@
         <v>-668247.3365692289</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5728,16 +5412,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5762,18 +5443,15 @@
         <v>-480065.1940692288</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5798,18 +5476,15 @@
         <v>-480047.0122692288</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5834,18 +5509,15 @@
         <v>-480047.0122692288</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5872,16 +5544,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5908,16 +5577,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5944,16 +5610,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5980,16 +5643,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6014,18 +5674,15 @@
         <v>-484962.3568692288</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6050,18 +5707,15 @@
         <v>-637198.6144692288</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6086,18 +5740,15 @@
         <v>-661778.6870692287</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6122,18 +5773,15 @@
         <v>-701624.6870692287</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6160,16 +5808,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6196,16 +5841,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6232,20 +5874,13 @@
       <c r="H155" t="n">
         <v>1</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="K155" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6272,26 +5907,15 @@
       <c r="H156" t="n">
         <v>1</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="K156" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest BZNT.xlsx
+++ b/BackTest/2019-10-28 BackTest BZNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>540029.452</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>536203.2984000001</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>4.3</v>
@@ -521,7 +521,7 @@
         <v>581993.8875000001</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>4.29</v>
@@ -562,7 +562,7 @@
         <v>660417.2516000001</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>4.3</v>
@@ -603,7 +603,7 @@
         <v>699281.4102</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>4.33</v>
@@ -718,7 +718,7 @@
         <v>740663.7506</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -751,7 +751,7 @@
         <v>740891.5410328018</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -819,8 +819,12 @@
       <c r="H12" t="n">
         <v>1</v>
       </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
@@ -852,9 +856,17 @@
       <c r="H13" t="n">
         <v>1</v>
       </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -885,9 +897,17 @@
       <c r="H14" t="n">
         <v>1</v>
       </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -916,15 +936,15 @@
         <v>786416.236532802</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -955,10 +975,12 @@
         <v>900166.8858907241</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -992,10 +1014,12 @@
         <v>890101.0628907242</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1032,7 +1056,9 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1069,7 +1095,9 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1103,10 +1131,12 @@
         <v>954101.0628907242</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1140,10 +1170,12 @@
         <v>924101.0628907242</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1180,7 +1212,9 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1217,7 +1251,9 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1254,7 +1290,9 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1291,7 +1329,9 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1325,12 +1365,12 @@
         <v>891437.7820907242</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1367,7 +1407,9 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1404,7 +1446,9 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1441,7 +1485,9 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1478,7 +1524,9 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1515,7 +1563,9 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1552,7 +1602,9 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1589,7 +1641,9 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1626,7 +1680,9 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1663,7 +1719,9 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1700,7 +1758,9 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1737,7 +1797,9 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1774,7 +1836,9 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1811,7 +1875,9 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1848,7 +1914,9 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1885,7 +1953,9 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1922,7 +1992,9 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1959,7 +2031,9 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1996,7 +2070,9 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2030,12 +2106,12 @@
         <v>-1392986.552509276</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2072,7 +2148,9 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2106,12 +2184,12 @@
         <v>-1494320.738509276</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
-      </c>
-      <c r="I47" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2145,12 +2223,12 @@
         <v>-1494320.738509276</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
-      </c>
-      <c r="I48" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2187,7 +2265,9 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2224,7 +2304,9 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2261,7 +2343,9 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2298,7 +2382,9 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2335,7 +2421,9 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2372,7 +2460,9 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2406,12 +2496,12 @@
         <v>-1727040.670809276</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
-      </c>
-      <c r="I55" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2445,12 +2535,12 @@
         <v>-1913808.463809276</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
-      </c>
-      <c r="I56" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2487,7 +2577,9 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2524,7 +2616,9 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2561,7 +2655,9 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2598,7 +2694,9 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2635,7 +2733,9 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2672,7 +2772,9 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2709,7 +2811,9 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2746,7 +2850,9 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2783,7 +2889,9 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2820,7 +2928,9 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2857,7 +2967,9 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2894,7 +3006,9 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2928,12 +3042,14 @@
         <v>-1950527.850609276</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>4.25</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2967,12 +3083,14 @@
         <v>-1950627.850609276</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>4.34</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3006,12 +3124,14 @@
         <v>-1945390.850609276</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>4.31</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3045,12 +3165,14 @@
         <v>-898940.2516092762</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>4.34</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3087,7 +3209,9 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3124,7 +3248,9 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3161,7 +3287,9 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3198,7 +3326,9 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3235,7 +3365,9 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3272,7 +3404,9 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3309,7 +3443,9 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3346,7 +3482,9 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3383,7 +3521,9 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3420,7 +3560,9 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3457,7 +3599,9 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3494,7 +3638,9 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3531,7 +3677,9 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3568,7 +3716,9 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3605,7 +3755,9 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3642,7 +3794,9 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3679,7 +3833,9 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3716,7 +3872,9 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3753,7 +3911,9 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3790,7 +3950,9 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3824,16 +3986,20 @@
         <v>-318371.2280692289</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>4.37</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
       <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
@@ -3862,8 +4028,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3892,11 +4064,17 @@
         <v>-318391.2280692289</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3925,11 +4103,17 @@
         <v>-302046.678269229</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3958,11 +4142,17 @@
         <v>-302046.678269229</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3991,11 +4181,17 @@
         <v>-302046.678269229</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4027,8 +4223,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4057,11 +4259,17 @@
         <v>-456440.4776692289</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4093,8 +4301,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4126,8 +4340,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4159,8 +4379,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4192,8 +4418,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4222,11 +4454,17 @@
         <v>-280151.590169229</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4258,8 +4496,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4291,8 +4535,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4324,8 +4574,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4354,15 +4610,23 @@
         <v>-281100.628169229</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>1.054496567505721</v>
+      </c>
+      <c r="M109" t="n">
+        <v>1.023310023310023</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4387,7 +4651,7 @@
         <v>-308067.240669229</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4420,7 +4684,7 @@
         <v>-978067.4870692289</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4486,7 +4750,7 @@
         <v>-1018053.865969229</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4519,7 +4783,7 @@
         <v>-1018053.865969229</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4585,7 +4849,7 @@
         <v>-1013205.865969229</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4783,7 +5047,7 @@
         <v>-791638.6079692289</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4816,7 +5080,7 @@
         <v>-877825.3599692289</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4849,7 +5113,7 @@
         <v>-678091.8827692289</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4882,7 +5146,7 @@
         <v>-678091.8827692289</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4915,7 +5179,7 @@
         <v>-678091.8827692289</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4948,7 +5212,7 @@
         <v>-678091.8827692289</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4981,7 +5245,7 @@
         <v>-678076.9043692289</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5014,7 +5278,7 @@
         <v>-678076.9043692289</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5047,7 +5311,7 @@
         <v>-678076.9043692289</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5080,7 +5344,7 @@
         <v>-678076.9043692289</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5113,7 +5377,7 @@
         <v>-678076.9043692289</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5146,7 +5410,7 @@
         <v>-678076.9043692289</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5179,7 +5443,7 @@
         <v>-678076.9043692289</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5212,7 +5476,7 @@
         <v>-678076.9043692289</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5245,7 +5509,7 @@
         <v>-678076.9043692289</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5278,7 +5542,7 @@
         <v>-679822.3345692288</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5311,7 +5575,7 @@
         <v>-669046.4725692288</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5344,7 +5608,7 @@
         <v>-719046.4725692288</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5377,7 +5641,7 @@
         <v>-668247.3365692289</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5410,7 +5674,7 @@
         <v>-669769.4274692289</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5443,7 +5707,7 @@
         <v>-480065.1940692288</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5476,7 +5740,7 @@
         <v>-480047.0122692288</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5509,7 +5773,7 @@
         <v>-480047.0122692288</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5542,7 +5806,7 @@
         <v>-483105.2788692288</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5575,7 +5839,7 @@
         <v>-483175.4501692288</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5608,7 +5872,7 @@
         <v>-483253.3592692288</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5641,7 +5905,7 @@
         <v>-483235.1774692287</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5674,7 +5938,7 @@
         <v>-484962.3568692288</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5707,7 +5971,7 @@
         <v>-637198.6144692288</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5740,7 +6004,7 @@
         <v>-661778.6870692287</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5773,7 +6037,7 @@
         <v>-701624.6870692287</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5806,7 +6070,7 @@
         <v>-713554.6870692287</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5839,7 +6103,7 @@
         <v>-970762.6167692287</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5872,7 +6136,7 @@
         <v>-1012925.312869229</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5905,7 +6169,7 @@
         <v>-928032.5316077407</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5916,6 +6180,6 @@
       <c r="M156" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest BZNT.xlsx
+++ b/BackTest/2019-10-28 BackTest BZNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>540029.452</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>536203.2984000001</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>581993.8875000001</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>660417.2516000001</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,14 +583,10 @@
         <v>699281.4102</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -643,14 +619,8 @@
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -682,14 +652,8 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -784,7 +748,7 @@
         <v>691692.2373328018</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -817,14 +781,10 @@
         <v>629358.6948328018</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="J12" t="n">
-        <v>4.37</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
@@ -854,2330 +814,1964 @@
         <v>683463.0943328019</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="C14" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="F14" t="n">
+        <v>11285.6164</v>
+      </c>
+      <c r="G14" t="n">
+        <v>694748.7107328019</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="D15" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="F15" t="n">
+        <v>91667.5258</v>
+      </c>
+      <c r="G15" t="n">
+        <v>786416.236532802</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="D16" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="F16" t="n">
+        <v>113750.6493579222</v>
+      </c>
+      <c r="G16" t="n">
+        <v>900166.8858907241</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="C17" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="D17" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="F17" t="n">
+        <v>10065.823</v>
+      </c>
+      <c r="G17" t="n">
+        <v>890101.0628907242</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="D18" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="F18" t="n">
+        <v>110000</v>
+      </c>
+      <c r="G18" t="n">
+        <v>890101.0628907242</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="D19" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="E19" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="F19" t="n">
+        <v>64000</v>
+      </c>
+      <c r="G19" t="n">
+        <v>954101.0628907242</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="D20" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="F20" t="n">
+        <v>64.36539999999999</v>
+      </c>
+      <c r="G20" t="n">
+        <v>954101.0628907242</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="C21" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="D21" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="E21" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="F21" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G21" t="n">
+        <v>924101.0628907242</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="C22" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="D22" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="E22" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="F22" t="n">
+        <v>25.1354</v>
+      </c>
+      <c r="G22" t="n">
+        <v>924126.1982907242</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="C23" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="D23" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="E23" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2698.4162</v>
+      </c>
+      <c r="G23" t="n">
+        <v>921427.7820907242</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="C24" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="D24" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="F24" t="n">
+        <v>13615.5047</v>
+      </c>
+      <c r="G24" t="n">
+        <v>907812.2773907242</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="C25" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="D25" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="F25" t="n">
+        <v>16384.4953</v>
+      </c>
+      <c r="G25" t="n">
+        <v>891427.7820907242</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="C26" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="D26" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="E26" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="F26" t="n">
+        <v>10</v>
+      </c>
+      <c r="G26" t="n">
+        <v>891437.7820907242</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="C27" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D27" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="E27" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="F27" t="n">
+        <v>71634.01360000001</v>
+      </c>
+      <c r="G27" t="n">
+        <v>819803.7684907243</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="C28" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D28" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E28" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="F28" t="n">
+        <v>133494.0347</v>
+      </c>
+      <c r="G28" t="n">
+        <v>819803.7684907243</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="C29" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="D29" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="F29" t="n">
+        <v>10</v>
+      </c>
+      <c r="G29" t="n">
+        <v>819813.7684907243</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="C30" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D30" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E30" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="F30" t="n">
+        <v>47671.766</v>
+      </c>
+      <c r="G30" t="n">
+        <v>772142.0024907242</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="C31" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="D31" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="E31" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="F31" t="n">
+        <v>200</v>
+      </c>
+      <c r="G31" t="n">
+        <v>772342.0024907242</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="C32" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D32" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E32" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="F32" t="n">
+        <v>578447</v>
+      </c>
+      <c r="G32" t="n">
+        <v>193895.0024907242</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="C33" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D33" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E33" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="F33" t="n">
+        <v>113817.972</v>
+      </c>
+      <c r="G33" t="n">
+        <v>193895.0024907242</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="C34" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="D34" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="E34" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="F34" t="n">
+        <v>10</v>
+      </c>
+      <c r="G34" t="n">
+        <v>193905.0024907242</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="C35" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D35" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E35" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2509.425</v>
+      </c>
+      <c r="G35" t="n">
+        <v>191395.5774907242</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="C36" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D36" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E36" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="F36" t="n">
+        <v>110000</v>
+      </c>
+      <c r="G36" t="n">
+        <v>191395.5774907242</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="C37" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="D37" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="E37" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1490006.266</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-1298610.688509276</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="C38" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D38" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E38" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="F38" t="n">
+        <v>240</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-1298370.688509276</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="C39" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="D39" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="E39" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="F39" t="n">
+        <v>10</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-1298380.688509276</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="C40" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D40" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E40" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="F40" t="n">
+        <v>18</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-1298362.688509276</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="C41" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="D41" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="E41" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="F41" t="n">
+        <v>18</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-1298380.688509276</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="C42" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="D42" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="E42" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="F42" t="n">
+        <v>81830.27959999999</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-1298380.688509276</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="C43" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="D43" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="E43" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="F43" t="n">
+        <v>28200</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-1270180.688509276</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="C44" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="D44" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="E44" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="F44" t="n">
+        <v>122805.864</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-1392986.552509276</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="C45" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="D45" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="E45" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="F45" t="n">
+        <v>17516.0308</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-1392986.552509276</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="C46" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="D46" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="E46" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="F46" t="n">
+        <v>10</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-1392976.552509276</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="C47" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="D47" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="E47" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="F47" t="n">
+        <v>101344.186</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-1494320.738509276</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="C48" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="D48" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="E48" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="F48" t="n">
+        <v>48655.814</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-1494320.738509276</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="C49" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="D49" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="E49" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="F49" t="n">
+        <v>18.1818</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-1494302.556709276</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="C50" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="D50" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="E50" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="F50" t="n">
+        <v>18.1818</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-1494284.374909276</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="C51" t="n">
         <v>4.35</v>
       </c>
-      <c r="J13" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K13" t="inlineStr">
+      <c r="D51" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="E51" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="F51" t="n">
+        <v>115027.1597</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-1609311.534609276</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="C52" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="D52" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="E52" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="F52" t="n">
+        <v>115424.4438</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-1724735.978409276</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="C53" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="D53" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="E53" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="F53" t="n">
+        <v>703.0198</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-1724735.978409276</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="C54" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="D54" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="E54" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="F54" t="n">
+        <v>2314.6924</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-1727050.670809276</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="C55" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="D55" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="E55" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="F55" t="n">
+        <v>10</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-1727040.670809276</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="C56" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="D56" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="E56" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="F56" t="n">
+        <v>186767.793</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-1913808.463809276</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="C57" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="D57" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="E57" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="F57" t="n">
+        <v>31741.3211</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-1913808.463809276</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="C58" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="D58" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="E58" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="F58" t="n">
+        <v>10203.6828</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-1913808.463809276</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="C59" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="D59" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="E59" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="F59" t="n">
+        <v>12000</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-1913808.463809276</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="C60" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="D60" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="E60" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="F60" t="n">
+        <v>17.2584</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-1913791.205409276</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="C61" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="D61" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="E61" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="F61" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-1918791.205409276</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="C62" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="D62" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="E62" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="F62" t="n">
+        <v>10</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-1918781.205409276</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="C63" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="D63" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="E63" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="F63" t="n">
+        <v>7606.8321</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-1926388.037509276</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="C64" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="D64" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="E64" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="F64" t="n">
+        <v>200</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-1926388.037509276</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="C65" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="D65" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="E65" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="F65" t="n">
+        <v>86120</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-2012508.037509276</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="C66" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="D66" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="E66" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="F66" t="n">
+        <v>19186.3226</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-2012508.037509276</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="C67" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="D67" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="E67" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="F67" t="n">
+        <v>94657.1869</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-1917850.850609276</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="C68" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="D68" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="E68" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="F68" t="n">
+        <v>32777</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-1950627.850609276</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="C69" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="D69" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="E69" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="F69" t="n">
+        <v>100</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-1950527.850609276</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="C70" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="D70" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="E70" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="F70" t="n">
+        <v>100</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-1950627.850609276</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="C71" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="D71" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="E71" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="F71" t="n">
+        <v>5237</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-1945390.850609276</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="C72" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="D72" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="E72" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1046450.599</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-898940.2516092762</v>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="C14" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="D14" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="E14" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="F14" t="n">
-        <v>11285.6164</v>
-      </c>
-      <c r="G14" t="n">
-        <v>694748.7107328019</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="J14" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="D15" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="E15" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="F15" t="n">
-        <v>91667.5258</v>
-      </c>
-      <c r="G15" t="n">
-        <v>786416.236532802</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="C16" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="D16" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="E16" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="F16" t="n">
-        <v>113750.6493579222</v>
-      </c>
-      <c r="G16" t="n">
-        <v>900166.8858907241</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="C17" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="D17" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="E17" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="F17" t="n">
-        <v>10065.823</v>
-      </c>
-      <c r="G17" t="n">
-        <v>890101.0628907242</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="C18" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="D18" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="E18" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="F18" t="n">
-        <v>110000</v>
-      </c>
-      <c r="G18" t="n">
-        <v>890101.0628907242</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="C19" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="D19" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="E19" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="F19" t="n">
-        <v>64000</v>
-      </c>
-      <c r="G19" t="n">
-        <v>954101.0628907242</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="C20" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="D20" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="E20" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="F20" t="n">
-        <v>64.36539999999999</v>
-      </c>
-      <c r="G20" t="n">
-        <v>954101.0628907242</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="C21" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="D21" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="E21" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="F21" t="n">
-        <v>30000</v>
-      </c>
-      <c r="G21" t="n">
-        <v>924101.0628907242</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="C22" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="D22" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="E22" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="F22" t="n">
-        <v>25.1354</v>
-      </c>
-      <c r="G22" t="n">
-        <v>924126.1982907242</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="C23" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="D23" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="E23" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="F23" t="n">
-        <v>2698.4162</v>
-      </c>
-      <c r="G23" t="n">
-        <v>921427.7820907242</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="C24" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="D24" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="E24" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="F24" t="n">
-        <v>13615.5047</v>
-      </c>
-      <c r="G24" t="n">
-        <v>907812.2773907242</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="C25" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="D25" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="E25" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="F25" t="n">
-        <v>16384.4953</v>
-      </c>
-      <c r="G25" t="n">
-        <v>891427.7820907242</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="C26" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="D26" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="E26" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="F26" t="n">
-        <v>10</v>
-      </c>
-      <c r="G26" t="n">
-        <v>891437.7820907242</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="C27" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="D27" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="E27" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="F27" t="n">
-        <v>71634.01360000001</v>
-      </c>
-      <c r="G27" t="n">
-        <v>819803.7684907243</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="C28" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="D28" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="E28" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="F28" t="n">
-        <v>133494.0347</v>
-      </c>
-      <c r="G28" t="n">
-        <v>819803.7684907243</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="C29" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="D29" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="E29" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="F29" t="n">
-        <v>10</v>
-      </c>
-      <c r="G29" t="n">
-        <v>819813.7684907243</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="C30" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="D30" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="E30" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="F30" t="n">
-        <v>47671.766</v>
-      </c>
-      <c r="G30" t="n">
-        <v>772142.0024907242</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="C31" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="D31" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="E31" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="F31" t="n">
-        <v>200</v>
-      </c>
-      <c r="G31" t="n">
-        <v>772342.0024907242</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="C32" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="D32" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="E32" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="F32" t="n">
-        <v>578447</v>
-      </c>
-      <c r="G32" t="n">
-        <v>193895.0024907242</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="C33" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="D33" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="E33" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="F33" t="n">
-        <v>113817.972</v>
-      </c>
-      <c r="G33" t="n">
-        <v>193895.0024907242</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="C34" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="D34" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="E34" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="F34" t="n">
-        <v>10</v>
-      </c>
-      <c r="G34" t="n">
-        <v>193905.0024907242</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="C35" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="D35" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="E35" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="F35" t="n">
-        <v>2509.425</v>
-      </c>
-      <c r="G35" t="n">
-        <v>191395.5774907242</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="C36" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="D36" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="E36" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="F36" t="n">
-        <v>110000</v>
-      </c>
-      <c r="G36" t="n">
-        <v>191395.5774907242</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="C37" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="D37" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="E37" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="F37" t="n">
-        <v>1490006.266</v>
-      </c>
-      <c r="G37" t="n">
-        <v>-1298610.688509276</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="C38" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="D38" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="E38" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="F38" t="n">
-        <v>240</v>
-      </c>
-      <c r="G38" t="n">
-        <v>-1298370.688509276</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="C39" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="D39" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="E39" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="F39" t="n">
-        <v>10</v>
-      </c>
-      <c r="G39" t="n">
-        <v>-1298380.688509276</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="C40" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="D40" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="E40" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="F40" t="n">
-        <v>18</v>
-      </c>
-      <c r="G40" t="n">
-        <v>-1298362.688509276</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="C41" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="D41" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="E41" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="F41" t="n">
-        <v>18</v>
-      </c>
-      <c r="G41" t="n">
-        <v>-1298380.688509276</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="C42" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="D42" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="E42" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="F42" t="n">
-        <v>81830.27959999999</v>
-      </c>
-      <c r="G42" t="n">
-        <v>-1298380.688509276</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="C43" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="D43" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="E43" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="F43" t="n">
-        <v>28200</v>
-      </c>
-      <c r="G43" t="n">
-        <v>-1270180.688509276</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="C44" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="D44" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="E44" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="F44" t="n">
-        <v>122805.864</v>
-      </c>
-      <c r="G44" t="n">
-        <v>-1392986.552509276</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="C45" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="D45" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="E45" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="F45" t="n">
-        <v>17516.0308</v>
-      </c>
-      <c r="G45" t="n">
-        <v>-1392986.552509276</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="C46" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="D46" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="E46" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="F46" t="n">
-        <v>10</v>
-      </c>
-      <c r="G46" t="n">
-        <v>-1392976.552509276</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="C47" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="D47" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="E47" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="F47" t="n">
-        <v>101344.186</v>
-      </c>
-      <c r="G47" t="n">
-        <v>-1494320.738509276</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="C48" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="D48" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="E48" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="F48" t="n">
-        <v>48655.814</v>
-      </c>
-      <c r="G48" t="n">
-        <v>-1494320.738509276</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="C49" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="D49" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="E49" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="F49" t="n">
-        <v>18.1818</v>
-      </c>
-      <c r="G49" t="n">
-        <v>-1494302.556709276</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="C50" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="D50" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="E50" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="F50" t="n">
-        <v>18.1818</v>
-      </c>
-      <c r="G50" t="n">
-        <v>-1494284.374909276</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="C51" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="D51" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="E51" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="F51" t="n">
-        <v>115027.1597</v>
-      </c>
-      <c r="G51" t="n">
-        <v>-1609311.534609276</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="C52" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="D52" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="E52" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="F52" t="n">
-        <v>115424.4438</v>
-      </c>
-      <c r="G52" t="n">
-        <v>-1724735.978409276</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="C53" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="D53" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="E53" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="F53" t="n">
-        <v>703.0198</v>
-      </c>
-      <c r="G53" t="n">
-        <v>-1724735.978409276</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="C54" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="D54" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="E54" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="F54" t="n">
-        <v>2314.6924</v>
-      </c>
-      <c r="G54" t="n">
-        <v>-1727050.670809276</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="C55" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="D55" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="E55" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="F55" t="n">
-        <v>10</v>
-      </c>
-      <c r="G55" t="n">
-        <v>-1727040.670809276</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="C56" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="D56" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="E56" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="F56" t="n">
-        <v>186767.793</v>
-      </c>
-      <c r="G56" t="n">
-        <v>-1913808.463809276</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="C57" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="D57" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="E57" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="F57" t="n">
-        <v>31741.3211</v>
-      </c>
-      <c r="G57" t="n">
-        <v>-1913808.463809276</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="C58" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="D58" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="E58" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="F58" t="n">
-        <v>10203.6828</v>
-      </c>
-      <c r="G58" t="n">
-        <v>-1913808.463809276</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="C59" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="D59" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="E59" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="F59" t="n">
-        <v>12000</v>
-      </c>
-      <c r="G59" t="n">
-        <v>-1913808.463809276</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="C60" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="D60" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="E60" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="F60" t="n">
-        <v>17.2584</v>
-      </c>
-      <c r="G60" t="n">
-        <v>-1913791.205409276</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="C61" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="D61" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="E61" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="F61" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G61" t="n">
-        <v>-1918791.205409276</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="C62" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="D62" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="E62" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="F62" t="n">
-        <v>10</v>
-      </c>
-      <c r="G62" t="n">
-        <v>-1918781.205409276</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="C63" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="D63" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="E63" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="F63" t="n">
-        <v>7606.8321</v>
-      </c>
-      <c r="G63" t="n">
-        <v>-1926388.037509276</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="C64" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="D64" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="E64" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="F64" t="n">
-        <v>200</v>
-      </c>
-      <c r="G64" t="n">
-        <v>-1926388.037509276</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="C65" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="D65" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="E65" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="F65" t="n">
-        <v>86120</v>
-      </c>
-      <c r="G65" t="n">
-        <v>-2012508.037509276</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="C66" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="D66" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="E66" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="F66" t="n">
-        <v>19186.3226</v>
-      </c>
-      <c r="G66" t="n">
-        <v>-2012508.037509276</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="C67" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="D67" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="E67" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="F67" t="n">
-        <v>94657.1869</v>
-      </c>
-      <c r="G67" t="n">
-        <v>-1917850.850609276</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="C68" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="D68" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="E68" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="F68" t="n">
-        <v>32777</v>
-      </c>
-      <c r="G68" t="n">
-        <v>-1950627.850609276</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="C69" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="D69" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="E69" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="F69" t="n">
-        <v>100</v>
-      </c>
-      <c r="G69" t="n">
-        <v>-1950527.850609276</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="J69" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="C70" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="D70" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="E70" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="F70" t="n">
-        <v>100</v>
-      </c>
-      <c r="G70" t="n">
-        <v>-1950627.850609276</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="J70" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="C71" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="D71" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="E71" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="F71" t="n">
-        <v>5237</v>
-      </c>
-      <c r="G71" t="n">
-        <v>-1945390.850609276</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="J71" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="C72" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="D72" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="E72" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="F72" t="n">
-        <v>1046450.599</v>
-      </c>
-      <c r="G72" t="n">
-        <v>-898940.2516092762</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="J72" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3209,9 +2803,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>4.37</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3245,12 +2837,10 @@
         <v>-660817.4410092762</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>4.37</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3287,9 +2877,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>4.37</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3323,12 +2911,10 @@
         <v>-241356.6456092762</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>4.37</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3362,12 +2948,10 @@
         <v>-131527.0292092762</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>4.37</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3401,12 +2985,10 @@
         <v>-168820.0502092762</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>4.37</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3443,9 +3025,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>4.37</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3479,12 +3059,10 @@
         <v>566490.9171907238</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>4.37</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3518,12 +3096,10 @@
         <v>669935.6407907238</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>4.37</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3560,9 +3136,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>4.37</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3599,9 +3173,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>4.37</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3635,20 +3207,16 @@
         <v>-20833.33380927611</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>4.37</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
@@ -3674,17 +3242,11 @@
         <v>-20868.33380927611</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3713,17 +3275,11 @@
         <v>-20868.33380927611</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3755,14 +3311,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3794,14 +3344,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3833,14 +3377,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3872,14 +3410,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3911,14 +3443,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3950,14 +3476,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3989,14 +3509,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4028,14 +3542,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4067,14 +3575,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4106,14 +3608,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4145,14 +3641,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4184,14 +3674,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4223,14 +3707,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4262,14 +3740,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4301,14 +3773,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4340,14 +3806,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4379,14 +3839,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4415,17 +3869,11 @@
         <v>-315545.192269229</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4454,17 +3902,11 @@
         <v>-280151.590169229</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4496,14 +3938,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4535,14 +3971,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4574,14 +4004,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4610,23 +4034,15 @@
         <v>-281100.628169229</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
-        <v>1.054496567505721</v>
-      </c>
-      <c r="M109" t="n">
-        <v>1.023310023310023</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4651,7 +4067,7 @@
         <v>-308067.240669229</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4684,7 +4100,7 @@
         <v>-978067.4870692289</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4750,7 +4166,7 @@
         <v>-1018053.865969229</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4783,7 +4199,7 @@
         <v>-1018053.865969229</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4816,7 +4232,7 @@
         <v>-1018053.865969229</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4882,7 +4298,7 @@
         <v>-1013205.865969229</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4915,7 +4331,7 @@
         <v>-965482.439269229</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -5047,7 +4463,7 @@
         <v>-791638.6079692289</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -5080,7 +4496,7 @@
         <v>-877825.3599692289</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -5113,7 +4529,7 @@
         <v>-678091.8827692289</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -5146,7 +4562,7 @@
         <v>-678091.8827692289</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -5179,7 +4595,7 @@
         <v>-678091.8827692289</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5212,7 +4628,7 @@
         <v>-678091.8827692289</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5245,7 +4661,7 @@
         <v>-678076.9043692289</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5278,7 +4694,7 @@
         <v>-678076.9043692289</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5311,7 +4727,7 @@
         <v>-678076.9043692289</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5344,7 +4760,7 @@
         <v>-678076.9043692289</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5377,7 +4793,7 @@
         <v>-678076.9043692289</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5410,7 +4826,7 @@
         <v>-678076.9043692289</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5443,7 +4859,7 @@
         <v>-678076.9043692289</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5476,7 +4892,7 @@
         <v>-678076.9043692289</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5509,7 +4925,7 @@
         <v>-678076.9043692289</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5542,7 +4958,7 @@
         <v>-679822.3345692288</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5575,7 +4991,7 @@
         <v>-669046.4725692288</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5608,7 +5024,7 @@
         <v>-719046.4725692288</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5641,7 +5057,7 @@
         <v>-668247.3365692289</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5674,7 +5090,7 @@
         <v>-669769.4274692289</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5707,7 +5123,7 @@
         <v>-480065.1940692288</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5740,7 +5156,7 @@
         <v>-480047.0122692288</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5773,7 +5189,7 @@
         <v>-480047.0122692288</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5806,7 +5222,7 @@
         <v>-483105.2788692288</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5839,7 +5255,7 @@
         <v>-483175.4501692288</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5872,7 +5288,7 @@
         <v>-483253.3592692288</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5905,7 +5321,7 @@
         <v>-483235.1774692287</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5938,7 +5354,7 @@
         <v>-484962.3568692288</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5971,7 +5387,7 @@
         <v>-637198.6144692288</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -6004,7 +5420,7 @@
         <v>-661778.6870692287</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6037,7 +5453,7 @@
         <v>-701624.6870692287</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -6070,7 +5486,7 @@
         <v>-713554.6870692287</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6103,7 +5519,7 @@
         <v>-970762.6167692287</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6136,7 +5552,7 @@
         <v>-1012925.312869229</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6169,17 +5585,23 @@
         <v>-928032.5316077407</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>4.41</v>
+      </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
       <c r="M156" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest BZNT.xlsx
+++ b/BackTest/2019-10-28 BackTest BZNT.xlsx
@@ -748,7 +748,7 @@
         <v>691692.2373328018</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>629358.6948328018</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>683463.0943328019</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>694748.7107328019</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>786416.236532802</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>900166.8858907241</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>890101.0628907242</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>890101.0628907242</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>954101.0628907242</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>954101.0628907242</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>924101.0628907242</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>924126.1982907242</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>921427.7820907242</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>907812.2773907242</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>891427.7820907242</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>891437.7820907242</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>819803.7684907243</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>819803.7684907243</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>819813.7684907243</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>772142.0024907242</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>772342.0024907242</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>193895.0024907242</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>193895.0024907242</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>193905.0024907242</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>191395.5774907242</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>191395.5774907242</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-1298610.688509276</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-1298370.688509276</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -2563,10 +2563,14 @@
         <v>-2012508.037509276</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J66" t="n">
+        <v>4.23</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
@@ -2596,11 +2600,19 @@
         <v>-1917850.850609276</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="J67" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2629,11 +2641,19 @@
         <v>-1950627.850609276</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="J68" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2662,11 +2682,19 @@
         <v>-1950527.850609276</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="J69" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2695,11 +2723,19 @@
         <v>-1950627.850609276</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="J70" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2728,11 +2764,19 @@
         <v>-1945390.850609276</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="J71" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2766,10 +2810,12 @@
       <c r="I72" t="n">
         <v>4.34</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>4.23</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L72" t="n">
@@ -2803,7 +2849,9 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>4.23</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2837,10 +2885,12 @@
         <v>-660817.4410092762</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>4.23</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2877,7 +2927,9 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>4.23</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2911,10 +2963,12 @@
         <v>-241356.6456092762</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>4.23</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2948,10 +3002,12 @@
         <v>-131527.0292092762</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>4.23</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2985,10 +3041,12 @@
         <v>-168820.0502092762</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>4.23</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3025,7 +3083,9 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>4.23</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3059,10 +3119,12 @@
         <v>566490.9171907238</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>4.23</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3096,10 +3158,12 @@
         <v>669935.6407907238</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>4.23</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3136,7 +3200,9 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>4.23</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3173,7 +3239,9 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>4.23</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3207,347 +3275,413 @@
         <v>-20833.33380927611</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="C85" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="D85" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="E85" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="F85" t="n">
+        <v>35</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-20868.33380927611</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="C86" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="D86" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="E86" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="F86" t="n">
+        <v>22344.4285</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-20868.33380927611</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C87" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D87" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E87" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="F87" t="n">
+        <v>77576.94160000001</v>
+      </c>
+      <c r="G87" t="n">
+        <v>56708.60779072389</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="C88" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="D88" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="E88" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="F88" t="n">
+        <v>14947.0225</v>
+      </c>
+      <c r="G88" t="n">
+        <v>71655.6302907239</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="C89" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="D89" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="E89" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="F89" t="n">
+        <v>167288.4828</v>
+      </c>
+      <c r="G89" t="n">
+        <v>238944.1130907239</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="C90" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="D90" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="E90" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="F90" t="n">
+        <v>215578.5800678959</v>
+      </c>
+      <c r="G90" t="n">
+        <v>454522.6931586198</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="C91" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="D91" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="E91" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="F91" t="n">
+        <v>538557.9690957447</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-84035.27593712485</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="C92" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="D92" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="E92" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="F92" t="n">
+        <v>234350.9521321041</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-318386.2280692289</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="C93" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="D93" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="E93" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="F93" t="n">
+        <v>15</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-318371.2280692289</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="C94" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="D94" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="E94" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="F94" t="n">
+        <v>10</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-318381.2280692289</v>
+      </c>
+      <c r="H94" t="n">
         <v>2</v>
       </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K94" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="C85" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="D85" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="E85" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="F85" t="n">
-        <v>35</v>
-      </c>
-      <c r="G85" t="n">
-        <v>-20868.33380927611</v>
-      </c>
-      <c r="H85" t="n">
-        <v>2</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="C86" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="D86" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="E86" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="F86" t="n">
-        <v>22344.4285</v>
-      </c>
-      <c r="G86" t="n">
-        <v>-20868.33380927611</v>
-      </c>
-      <c r="H86" t="n">
-        <v>2</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C87" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D87" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E87" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="F87" t="n">
-        <v>77576.94160000001</v>
-      </c>
-      <c r="G87" t="n">
-        <v>56708.60779072389</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="C88" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="D88" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="E88" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="F88" t="n">
-        <v>14947.0225</v>
-      </c>
-      <c r="G88" t="n">
-        <v>71655.6302907239</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="C89" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="D89" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="E89" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="F89" t="n">
-        <v>167288.4828</v>
-      </c>
-      <c r="G89" t="n">
-        <v>238944.1130907239</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C90" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="D90" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="E90" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="F90" t="n">
-        <v>215578.5800678959</v>
-      </c>
-      <c r="G90" t="n">
-        <v>454522.6931586198</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="C91" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="D91" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="E91" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="F91" t="n">
-        <v>538557.9690957447</v>
-      </c>
-      <c r="G91" t="n">
-        <v>-84035.27593712485</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="C92" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="D92" t="n">
-        <v>4.72</v>
-      </c>
-      <c r="E92" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="F92" t="n">
-        <v>234350.9521321041</v>
-      </c>
-      <c r="G92" t="n">
-        <v>-318386.2280692289</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>4.72</v>
-      </c>
-      <c r="C93" t="n">
-        <v>4.72</v>
-      </c>
-      <c r="D93" t="n">
-        <v>4.72</v>
-      </c>
-      <c r="E93" t="n">
-        <v>4.72</v>
-      </c>
-      <c r="F93" t="n">
-        <v>15</v>
-      </c>
-      <c r="G93" t="n">
-        <v>-318371.2280692289</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="C94" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="D94" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="E94" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="F94" t="n">
-        <v>10</v>
-      </c>
-      <c r="G94" t="n">
-        <v>-318381.2280692289</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>1.075378250591017</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1.077858880778589</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3935,7 +4069,7 @@
         <v>-280161.590169229</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3968,7 +4102,7 @@
         <v>-280143.4083692289</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4001,7 +4135,7 @@
         <v>-280910.628169229</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4034,7 +4168,7 @@
         <v>-281100.628169229</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4067,7 +4201,7 @@
         <v>-308067.240669229</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4100,7 +4234,7 @@
         <v>-978067.4870692289</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4133,7 +4267,7 @@
         <v>-977855.9402692289</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4232,7 +4366,7 @@
         <v>-1018053.865969229</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4265,7 +4399,7 @@
         <v>-1013205.865969229</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4298,7 +4432,7 @@
         <v>-1013205.865969229</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4331,7 +4465,7 @@
         <v>-965482.439269229</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4529,7 +4663,7 @@
         <v>-678091.8827692289</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4562,7 +4696,7 @@
         <v>-678091.8827692289</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4595,7 +4729,7 @@
         <v>-678091.8827692289</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4628,7 +4762,7 @@
         <v>-678091.8827692289</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4661,7 +4795,7 @@
         <v>-678076.9043692289</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4694,7 +4828,7 @@
         <v>-678076.9043692289</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4727,7 +4861,7 @@
         <v>-678076.9043692289</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4760,7 +4894,7 @@
         <v>-678076.9043692289</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4793,7 +4927,7 @@
         <v>-678076.9043692289</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4826,7 +4960,7 @@
         <v>-678076.9043692289</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4859,7 +4993,7 @@
         <v>-678076.9043692289</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4892,7 +5026,7 @@
         <v>-678076.9043692289</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4925,7 +5059,7 @@
         <v>-678076.9043692289</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4958,7 +5092,7 @@
         <v>-679822.3345692288</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4991,7 +5125,7 @@
         <v>-669046.4725692288</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5024,7 +5158,7 @@
         <v>-719046.4725692288</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5057,7 +5191,7 @@
         <v>-668247.3365692289</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5090,7 +5224,7 @@
         <v>-669769.4274692289</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5123,7 +5257,7 @@
         <v>-480065.1940692288</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5156,7 +5290,7 @@
         <v>-480047.0122692288</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5189,7 +5323,7 @@
         <v>-480047.0122692288</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5222,7 +5356,7 @@
         <v>-483105.2788692288</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5255,7 +5389,7 @@
         <v>-483175.4501692288</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5288,7 +5422,7 @@
         <v>-483253.3592692288</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5321,7 +5455,7 @@
         <v>-483235.1774692287</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5354,7 +5488,7 @@
         <v>-484962.3568692288</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5387,7 +5521,7 @@
         <v>-637198.6144692288</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5420,7 +5554,7 @@
         <v>-661778.6870692287</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5453,7 +5587,7 @@
         <v>-701624.6870692287</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5486,7 +5620,7 @@
         <v>-713554.6870692287</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5519,7 +5653,7 @@
         <v>-970762.6167692287</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5552,10 +5686,14 @@
         <v>-1012925.312869229</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="J155" t="n">
+        <v>4.43</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
@@ -5590,7 +5728,9 @@
       <c r="I156" t="n">
         <v>4.41</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>4.43</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매수 체결</t>

--- a/BackTest/2019-10-28 BackTest BZNT.xlsx
+++ b/BackTest/2019-10-28 BackTest BZNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M156"/>
+  <dimension ref="A1:L156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>18.1818</v>
       </c>
       <c r="G2" t="n">
-        <v>540029.452</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>3826.1536</v>
       </c>
       <c r="G3" t="n">
-        <v>536203.2984000001</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,19 @@
         <v>45790.5891</v>
       </c>
       <c r="G4" t="n">
-        <v>581993.8875000001</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>4.29</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4.29</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +537,23 @@
         <v>78423.36410000001</v>
       </c>
       <c r="G5" t="n">
-        <v>660417.2516000001</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>4.3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +575,23 @@
         <v>38864.1586</v>
       </c>
       <c r="G6" t="n">
-        <v>699281.4102</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>4.33</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +613,15 @@
         <v>41382.3404</v>
       </c>
       <c r="G7" t="n">
-        <v>740663.7506</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +643,15 @@
         <v>51000</v>
       </c>
       <c r="G8" t="n">
-        <v>740663.7506</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +673,15 @@
         <v>800.6963</v>
       </c>
       <c r="G9" t="n">
-        <v>740663.7506</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +703,15 @@
         <v>227.7904328018223</v>
       </c>
       <c r="G10" t="n">
-        <v>740891.5410328018</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +733,15 @@
         <v>49199.3037</v>
       </c>
       <c r="G11" t="n">
-        <v>691692.2373328018</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +763,15 @@
         <v>62333.5425</v>
       </c>
       <c r="G12" t="n">
-        <v>629358.6948328018</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +793,21 @@
         <v>54104.3995</v>
       </c>
       <c r="G13" t="n">
-        <v>683463.0943328019</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>4.35</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +829,21 @@
         <v>11285.6164</v>
       </c>
       <c r="G14" t="n">
-        <v>694748.7107328019</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>4.37</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +865,21 @@
         <v>91667.5258</v>
       </c>
       <c r="G15" t="n">
-        <v>786416.236532802</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>4.38</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +901,19 @@
         <v>113750.6493579222</v>
       </c>
       <c r="G16" t="n">
-        <v>900166.8858907241</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +935,21 @@
         <v>10065.823</v>
       </c>
       <c r="G17" t="n">
-        <v>890101.0628907242</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>4.42</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +971,19 @@
         <v>110000</v>
       </c>
       <c r="G18" t="n">
-        <v>890101.0628907242</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +1005,19 @@
         <v>64000</v>
       </c>
       <c r="G19" t="n">
-        <v>954101.0628907242</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1039,19 @@
         <v>64.36539999999999</v>
       </c>
       <c r="G20" t="n">
-        <v>954101.0628907242</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1073,21 @@
         <v>30000</v>
       </c>
       <c r="G21" t="n">
-        <v>924101.0628907242</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>4.43</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1109,21 @@
         <v>25.1354</v>
       </c>
       <c r="G22" t="n">
-        <v>924126.1982907242</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>4.42</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1145,21 @@
         <v>2698.4162</v>
       </c>
       <c r="G23" t="n">
-        <v>921427.7820907242</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>4.43</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1181,21 @@
         <v>13615.5047</v>
       </c>
       <c r="G24" t="n">
-        <v>907812.2773907242</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>4.42</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1217,21 @@
         <v>16384.4953</v>
       </c>
       <c r="G25" t="n">
-        <v>891427.7820907242</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>4.28</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1253,21 @@
         <v>10</v>
       </c>
       <c r="G26" t="n">
-        <v>891437.7820907242</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>4.27</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1289,21 @@
         <v>71634.01360000001</v>
       </c>
       <c r="G27" t="n">
-        <v>819803.7684907243</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>4.41</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1325,19 @@
         <v>133494.0347</v>
       </c>
       <c r="G28" t="n">
-        <v>819803.7684907243</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1359,19 @@
         <v>10</v>
       </c>
       <c r="G29" t="n">
-        <v>819813.7684907243</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1393,19 @@
         <v>47671.766</v>
       </c>
       <c r="G30" t="n">
-        <v>772142.0024907242</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1427,19 @@
         <v>200</v>
       </c>
       <c r="G31" t="n">
-        <v>772342.0024907242</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1461,19 @@
         <v>578447</v>
       </c>
       <c r="G32" t="n">
-        <v>193895.0024907242</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1495,19 @@
         <v>113817.972</v>
       </c>
       <c r="G33" t="n">
-        <v>193895.0024907242</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1529,19 @@
         <v>10</v>
       </c>
       <c r="G34" t="n">
-        <v>193905.0024907242</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1563,19 @@
         <v>2509.425</v>
       </c>
       <c r="G35" t="n">
-        <v>191395.5774907242</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1597,19 @@
         <v>110000</v>
       </c>
       <c r="G36" t="n">
-        <v>191395.5774907242</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1631,19 @@
         <v>1490006.266</v>
       </c>
       <c r="G37" t="n">
-        <v>-1298610.688509276</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1665,19 @@
         <v>240</v>
       </c>
       <c r="G38" t="n">
-        <v>-1298370.688509276</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1699,19 @@
         <v>10</v>
       </c>
       <c r="G39" t="n">
-        <v>-1298380.688509276</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1733,19 @@
         <v>18</v>
       </c>
       <c r="G40" t="n">
-        <v>-1298362.688509276</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1767,19 @@
         <v>18</v>
       </c>
       <c r="G41" t="n">
-        <v>-1298380.688509276</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1801,19 @@
         <v>81830.27959999999</v>
       </c>
       <c r="G42" t="n">
-        <v>-1298380.688509276</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1835,19 @@
         <v>28200</v>
       </c>
       <c r="G43" t="n">
-        <v>-1270180.688509276</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1869,19 @@
         <v>122805.864</v>
       </c>
       <c r="G44" t="n">
-        <v>-1392986.552509276</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1903,19 @@
         <v>17516.0308</v>
       </c>
       <c r="G45" t="n">
-        <v>-1392986.552509276</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1937,19 @@
         <v>10</v>
       </c>
       <c r="G46" t="n">
-        <v>-1392976.552509276</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1971,19 @@
         <v>101344.186</v>
       </c>
       <c r="G47" t="n">
-        <v>-1494320.738509276</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +2005,19 @@
         <v>48655.814</v>
       </c>
       <c r="G48" t="n">
-        <v>-1494320.738509276</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +2039,19 @@
         <v>18.1818</v>
       </c>
       <c r="G49" t="n">
-        <v>-1494302.556709276</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +2073,19 @@
         <v>18.1818</v>
       </c>
       <c r="G50" t="n">
-        <v>-1494284.374909276</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +2107,19 @@
         <v>115027.1597</v>
       </c>
       <c r="G51" t="n">
-        <v>-1609311.534609276</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2141,19 @@
         <v>115424.4438</v>
       </c>
       <c r="G52" t="n">
-        <v>-1724735.978409276</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2175,19 @@
         <v>703.0198</v>
       </c>
       <c r="G53" t="n">
-        <v>-1724735.978409276</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2209,19 @@
         <v>2314.6924</v>
       </c>
       <c r="G54" t="n">
-        <v>-1727050.670809276</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2243,19 @@
         <v>10</v>
       </c>
       <c r="G55" t="n">
-        <v>-1727040.670809276</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2277,19 @@
         <v>186767.793</v>
       </c>
       <c r="G56" t="n">
-        <v>-1913808.463809276</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2311,19 @@
         <v>31741.3211</v>
       </c>
       <c r="G57" t="n">
-        <v>-1913808.463809276</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2345,19 @@
         <v>10203.6828</v>
       </c>
       <c r="G58" t="n">
-        <v>-1913808.463809276</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2379,19 @@
         <v>12000</v>
       </c>
       <c r="G59" t="n">
-        <v>-1913808.463809276</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2413,19 @@
         <v>17.2584</v>
       </c>
       <c r="G60" t="n">
-        <v>-1913791.205409276</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2447,19 @@
         <v>5000</v>
       </c>
       <c r="G61" t="n">
-        <v>-1918791.205409276</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2481,19 @@
         <v>10</v>
       </c>
       <c r="G62" t="n">
-        <v>-1918781.205409276</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2515,19 @@
         <v>7606.8321</v>
       </c>
       <c r="G63" t="n">
-        <v>-1926388.037509276</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2549,19 @@
         <v>200</v>
       </c>
       <c r="G64" t="n">
-        <v>-1926388.037509276</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2583,19 @@
         <v>86120</v>
       </c>
       <c r="G65" t="n">
-        <v>-2012508.037509276</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,22 +2617,19 @@
         <v>19186.3226</v>
       </c>
       <c r="G66" t="n">
-        <v>-2012508.037509276</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="J66" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2597,26 +2651,19 @@
         <v>94657.1869</v>
       </c>
       <c r="G67" t="n">
-        <v>-1917850.850609276</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="J67" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2638,26 +2685,19 @@
         <v>32777</v>
       </c>
       <c r="G68" t="n">
-        <v>-1950627.850609276</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="J68" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2679,26 +2719,19 @@
         <v>100</v>
       </c>
       <c r="G69" t="n">
-        <v>-1950527.850609276</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="J69" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2720,26 +2753,19 @@
         <v>100</v>
       </c>
       <c r="G70" t="n">
-        <v>-1950627.850609276</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="J70" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2761,26 +2787,19 @@
         <v>5237</v>
       </c>
       <c r="G71" t="n">
-        <v>-1945390.850609276</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="J71" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2802,26 +2821,19 @@
         <v>1046450.599</v>
       </c>
       <c r="G72" t="n">
-        <v>-898940.2516092762</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="J72" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2843,24 +2855,19 @@
         <v>7000</v>
       </c>
       <c r="G73" t="n">
-        <v>-891940.2516092762</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2882,24 +2889,19 @@
         <v>231122.8106</v>
       </c>
       <c r="G74" t="n">
-        <v>-660817.4410092762</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2921,24 +2923,19 @@
         <v>359460.7954</v>
       </c>
       <c r="G75" t="n">
-        <v>-301356.6456092762</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2960,24 +2957,19 @@
         <v>60000</v>
       </c>
       <c r="G76" t="n">
-        <v>-241356.6456092762</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2999,24 +2991,19 @@
         <v>109829.6164</v>
       </c>
       <c r="G77" t="n">
-        <v>-131527.0292092762</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3038,24 +3025,19 @@
         <v>37293.021</v>
       </c>
       <c r="G78" t="n">
-        <v>-168820.0502092762</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3077,24 +3059,19 @@
         <v>2033.3502</v>
       </c>
       <c r="G79" t="n">
-        <v>-168820.0502092762</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3116,24 +3093,19 @@
         <v>735310.9674</v>
       </c>
       <c r="G80" t="n">
-        <v>566490.9171907238</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3155,24 +3127,19 @@
         <v>103444.7236</v>
       </c>
       <c r="G81" t="n">
-        <v>669935.6407907238</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3194,24 +3161,19 @@
         <v>147240.3646</v>
       </c>
       <c r="G82" t="n">
-        <v>522695.2761907239</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3233,24 +3195,19 @@
         <v>416949.5081</v>
       </c>
       <c r="G83" t="n">
-        <v>939644.7842907239</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3272,24 +3229,19 @@
         <v>960478.1181</v>
       </c>
       <c r="G84" t="n">
-        <v>-20833.33380927611</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3311,24 +3263,19 @@
         <v>35</v>
       </c>
       <c r="G85" t="n">
-        <v>-20868.33380927611</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3350,24 +3297,19 @@
         <v>22344.4285</v>
       </c>
       <c r="G86" t="n">
-        <v>-20868.33380927611</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3389,24 +3331,19 @@
         <v>77576.94160000001</v>
       </c>
       <c r="G87" t="n">
-        <v>56708.60779072389</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3428,24 +3365,19 @@
         <v>14947.0225</v>
       </c>
       <c r="G88" t="n">
-        <v>71655.6302907239</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3467,24 +3399,19 @@
         <v>167288.4828</v>
       </c>
       <c r="G89" t="n">
-        <v>238944.1130907239</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3506,24 +3433,19 @@
         <v>215578.5800678959</v>
       </c>
       <c r="G90" t="n">
-        <v>454522.6931586198</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3545,24 +3467,19 @@
         <v>538557.9690957447</v>
       </c>
       <c r="G91" t="n">
-        <v>-84035.27593712485</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3584,24 +3501,19 @@
         <v>234350.9521321041</v>
       </c>
       <c r="G92" t="n">
-        <v>-318386.2280692289</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3623,24 +3535,19 @@
         <v>15</v>
       </c>
       <c r="G93" t="n">
-        <v>-318371.2280692289</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3662,26 +3569,19 @@
         <v>10</v>
       </c>
       <c r="G94" t="n">
-        <v>-318381.2280692289</v>
-      </c>
-      <c r="H94" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1.075378250591017</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.077858880778589</v>
-      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3703,18 +3603,19 @@
         <v>10</v>
       </c>
       <c r="G95" t="n">
-        <v>-318391.2280692289</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3736,18 +3637,19 @@
         <v>16344.5498</v>
       </c>
       <c r="G96" t="n">
-        <v>-302046.678269229</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3769,18 +3671,19 @@
         <v>83899.8912</v>
       </c>
       <c r="G97" t="n">
-        <v>-302046.678269229</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3802,18 +3705,19 @@
         <v>10</v>
       </c>
       <c r="G98" t="n">
-        <v>-302046.678269229</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3835,18 +3739,19 @@
         <v>126818.4458</v>
       </c>
       <c r="G99" t="n">
-        <v>-302046.678269229</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3868,18 +3773,19 @@
         <v>154393.7994</v>
       </c>
       <c r="G100" t="n">
-        <v>-456440.4776692289</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3901,18 +3807,19 @@
         <v>19543.2097</v>
       </c>
       <c r="G101" t="n">
-        <v>-475983.6873692289</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3934,18 +3841,19 @@
         <v>21387.5213</v>
       </c>
       <c r="G102" t="n">
-        <v>-497371.2086692289</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3967,18 +3875,19 @@
         <v>181426.0164</v>
       </c>
       <c r="G103" t="n">
-        <v>-315945.192269229</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4000,18 +3909,19 @@
         <v>400</v>
       </c>
       <c r="G104" t="n">
-        <v>-315545.192269229</v>
-      </c>
-      <c r="H104" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4033,18 +3943,19 @@
         <v>35393.6021</v>
       </c>
       <c r="G105" t="n">
-        <v>-280151.590169229</v>
-      </c>
-      <c r="H105" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4066,18 +3977,19 @@
         <v>10</v>
       </c>
       <c r="G106" t="n">
-        <v>-280161.590169229</v>
-      </c>
-      <c r="H106" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4099,18 +4011,19 @@
         <v>18.1818</v>
       </c>
       <c r="G107" t="n">
-        <v>-280143.4083692289</v>
-      </c>
-      <c r="H107" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4132,18 +4045,19 @@
         <v>767.2198</v>
       </c>
       <c r="G108" t="n">
-        <v>-280910.628169229</v>
-      </c>
-      <c r="H108" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4165,18 +4079,19 @@
         <v>190</v>
       </c>
       <c r="G109" t="n">
-        <v>-281100.628169229</v>
-      </c>
-      <c r="H109" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4198,18 +4113,19 @@
         <v>26966.6125</v>
       </c>
       <c r="G110" t="n">
-        <v>-308067.240669229</v>
-      </c>
-      <c r="H110" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4231,18 +4147,19 @@
         <v>670000.2463999999</v>
       </c>
       <c r="G111" t="n">
-        <v>-978067.4870692289</v>
-      </c>
-      <c r="H111" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4264,18 +4181,19 @@
         <v>211.5468</v>
       </c>
       <c r="G112" t="n">
-        <v>-977855.9402692289</v>
-      </c>
-      <c r="H112" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4297,18 +4215,19 @@
         <v>40197.9257</v>
       </c>
       <c r="G113" t="n">
-        <v>-1018053.865969229</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4330,18 +4249,19 @@
         <v>1936.4628</v>
       </c>
       <c r="G114" t="n">
-        <v>-1018053.865969229</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4363,18 +4283,19 @@
         <v>18.1818</v>
       </c>
       <c r="G115" t="n">
-        <v>-1018053.865969229</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4396,18 +4317,19 @@
         <v>4848</v>
       </c>
       <c r="G116" t="n">
-        <v>-1013205.865969229</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4429,18 +4351,19 @@
         <v>69730.9368</v>
       </c>
       <c r="G117" t="n">
-        <v>-1013205.865969229</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4462,18 +4385,19 @@
         <v>47723.4267</v>
       </c>
       <c r="G118" t="n">
-        <v>-965482.439269229</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4495,18 +4419,19 @@
         <v>4610.1818</v>
       </c>
       <c r="G119" t="n">
-        <v>-965482.439269229</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4528,18 +4453,19 @@
         <v>19963.6364</v>
       </c>
       <c r="G120" t="n">
-        <v>-965482.439269229</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4561,18 +4487,19 @@
         <v>5004.013</v>
       </c>
       <c r="G121" t="n">
-        <v>-960478.4262692289</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4594,18 +4521,19 @@
         <v>168839.8183</v>
       </c>
       <c r="G122" t="n">
-        <v>-791638.6079692289</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4627,18 +4555,19 @@
         <v>86186.75199999999</v>
       </c>
       <c r="G123" t="n">
-        <v>-877825.3599692289</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4660,18 +4589,19 @@
         <v>199733.4772</v>
       </c>
       <c r="G124" t="n">
-        <v>-678091.8827692289</v>
-      </c>
-      <c r="H124" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4693,18 +4623,19 @@
         <v>21977.5772</v>
       </c>
       <c r="G125" t="n">
-        <v>-678091.8827692289</v>
-      </c>
-      <c r="H125" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4726,18 +4657,19 @@
         <v>82101.2316</v>
       </c>
       <c r="G126" t="n">
-        <v>-678091.8827692289</v>
-      </c>
-      <c r="H126" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4759,18 +4691,19 @@
         <v>159216.8858</v>
       </c>
       <c r="G127" t="n">
-        <v>-678091.8827692289</v>
-      </c>
-      <c r="H127" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4792,18 +4725,19 @@
         <v>14.9784</v>
       </c>
       <c r="G128" t="n">
-        <v>-678076.9043692289</v>
-      </c>
-      <c r="H128" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4825,18 +4759,19 @@
         <v>264</v>
       </c>
       <c r="G129" t="n">
-        <v>-678076.9043692289</v>
-      </c>
-      <c r="H129" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4858,18 +4793,19 @@
         <v>3572.418</v>
       </c>
       <c r="G130" t="n">
-        <v>-678076.9043692289</v>
-      </c>
-      <c r="H130" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4891,18 +4827,19 @@
         <v>297</v>
       </c>
       <c r="G131" t="n">
-        <v>-678076.9043692289</v>
-      </c>
-      <c r="H131" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4924,18 +4861,19 @@
         <v>165</v>
       </c>
       <c r="G132" t="n">
-        <v>-678076.9043692289</v>
-      </c>
-      <c r="H132" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4957,18 +4895,19 @@
         <v>18.1818</v>
       </c>
       <c r="G133" t="n">
-        <v>-678076.9043692289</v>
-      </c>
-      <c r="H133" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4990,18 +4929,19 @@
         <v>14.8491</v>
       </c>
       <c r="G134" t="n">
-        <v>-678076.9043692289</v>
-      </c>
-      <c r="H134" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5023,18 +4963,19 @@
         <v>1864.3857</v>
       </c>
       <c r="G135" t="n">
-        <v>-678076.9043692289</v>
-      </c>
-      <c r="H135" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5056,18 +4997,19 @@
         <v>3232.7586</v>
       </c>
       <c r="G136" t="n">
-        <v>-678076.9043692289</v>
-      </c>
-      <c r="H136" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5089,18 +5031,19 @@
         <v>1745.4302</v>
       </c>
       <c r="G137" t="n">
-        <v>-679822.3345692288</v>
-      </c>
-      <c r="H137" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5122,18 +5065,19 @@
         <v>10775.862</v>
       </c>
       <c r="G138" t="n">
-        <v>-669046.4725692288</v>
-      </c>
-      <c r="H138" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5155,18 +5099,17 @@
         <v>50000</v>
       </c>
       <c r="G139" t="n">
-        <v>-719046.4725692288</v>
-      </c>
-      <c r="H139" t="n">
         <v>2</v>
       </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5188,18 +5131,15 @@
         <v>50799.136</v>
       </c>
       <c r="G140" t="n">
-        <v>-668247.3365692289</v>
-      </c>
-      <c r="H140" t="n">
         <v>2</v>
       </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5221,18 +5161,15 @@
         <v>1522.0909</v>
       </c>
       <c r="G141" t="n">
-        <v>-669769.4274692289</v>
-      </c>
-      <c r="H141" t="n">
         <v>2</v>
       </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5254,18 +5191,15 @@
         <v>189704.2334</v>
       </c>
       <c r="G142" t="n">
-        <v>-480065.1940692288</v>
-      </c>
-      <c r="H142" t="n">
         <v>2</v>
       </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5287,18 +5221,15 @@
         <v>18.1818</v>
       </c>
       <c r="G143" t="n">
-        <v>-480047.0122692288</v>
-      </c>
-      <c r="H143" t="n">
         <v>2</v>
       </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5320,18 +5251,15 @@
         <v>60018.1818</v>
       </c>
       <c r="G144" t="n">
-        <v>-480047.0122692288</v>
-      </c>
-      <c r="H144" t="n">
         <v>2</v>
       </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5353,18 +5281,15 @@
         <v>3058.2666</v>
       </c>
       <c r="G145" t="n">
-        <v>-483105.2788692288</v>
-      </c>
-      <c r="H145" t="n">
         <v>2</v>
       </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5386,18 +5311,15 @@
         <v>70.1713</v>
       </c>
       <c r="G146" t="n">
-        <v>-483175.4501692288</v>
-      </c>
-      <c r="H146" t="n">
         <v>2</v>
       </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5419,18 +5341,15 @@
         <v>77.9091</v>
       </c>
       <c r="G147" t="n">
-        <v>-483253.3592692288</v>
-      </c>
-      <c r="H147" t="n">
         <v>2</v>
       </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5452,18 +5371,15 @@
         <v>18.1818</v>
       </c>
       <c r="G148" t="n">
-        <v>-483235.1774692287</v>
-      </c>
-      <c r="H148" t="n">
         <v>2</v>
       </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5485,18 +5401,15 @@
         <v>1727.1794</v>
       </c>
       <c r="G149" t="n">
-        <v>-484962.3568692288</v>
-      </c>
-      <c r="H149" t="n">
         <v>2</v>
       </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5518,18 +5431,15 @@
         <v>152236.2576</v>
       </c>
       <c r="G150" t="n">
-        <v>-637198.6144692288</v>
-      </c>
-      <c r="H150" t="n">
         <v>2</v>
       </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5551,18 +5461,15 @@
         <v>24580.0726</v>
       </c>
       <c r="G151" t="n">
-        <v>-661778.6870692287</v>
-      </c>
-      <c r="H151" t="n">
         <v>2</v>
       </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5584,18 +5491,15 @@
         <v>39846</v>
       </c>
       <c r="G152" t="n">
-        <v>-701624.6870692287</v>
-      </c>
-      <c r="H152" t="n">
         <v>2</v>
       </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5617,18 +5521,15 @@
         <v>11930</v>
       </c>
       <c r="G153" t="n">
-        <v>-713554.6870692287</v>
-      </c>
-      <c r="H153" t="n">
         <v>2</v>
       </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5650,18 +5551,15 @@
         <v>257207.9297</v>
       </c>
       <c r="G154" t="n">
-        <v>-970762.6167692287</v>
-      </c>
-      <c r="H154" t="n">
         <v>2</v>
       </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5683,22 +5581,15 @@
         <v>42162.6961</v>
       </c>
       <c r="G155" t="n">
-        <v>-1012925.312869229</v>
-      </c>
-      <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="J155" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5720,26 +5611,15 @@
         <v>84892.78126148797</v>
       </c>
       <c r="G156" t="n">
-        <v>-928032.5316077407</v>
-      </c>
-      <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="J156" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
